--- a/농협마트 매입매출 프로젝트/샘플-매입매출데이터(2021-05-07).xlsx
+++ b/농협마트 매입매출 프로젝트/샘플-매입매출데이터(2021-05-07).xlsx
@@ -3530,12 +3530,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3558,6 +3552,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3872,17 +3872,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -32984,9 +32984,9 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="19" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.875" customWidth="1"/>
@@ -32999,13 +32999,13 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>160</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -33034,13 +33034,13 @@
       <c r="B2" s="8">
         <v>43833</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>162</v>
       </c>
       <c r="D2" s="9">
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>435</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -33069,13 +33069,13 @@
       <c r="B3" s="8">
         <v>43837</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>291</v>
       </c>
       <c r="D3" s="9">
         <v>2.2569444444444444E-2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>436</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -33104,13 +33104,13 @@
       <c r="B4" s="8">
         <v>43838</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>292</v>
       </c>
       <c r="D4" s="9">
         <v>2.5833333333333333E-2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>437</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -33139,13 +33139,13 @@
       <c r="B5" s="8">
         <v>43839</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="9">
         <v>2.8055555555555556E-2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>438</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -33174,13 +33174,13 @@
       <c r="B6" s="8">
         <v>43840</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>294</v>
       </c>
       <c r="D6" s="9">
         <v>2.9756944444444447E-2</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>439</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -33209,13 +33209,13 @@
       <c r="B7" s="8">
         <v>43842</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>295</v>
       </c>
       <c r="D7" s="9">
         <v>2.9791666666666664E-2</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>440</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -33244,13 +33244,13 @@
       <c r="B8" s="8">
         <v>43842</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>295</v>
       </c>
       <c r="D8" s="9">
         <v>2.988425925925926E-2</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>441</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -33279,13 +33279,13 @@
       <c r="B9" s="8">
         <v>43843</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>296</v>
       </c>
       <c r="D9" s="9">
         <v>3.1631944444444442E-2</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>442</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -33314,13 +33314,13 @@
       <c r="B10" s="8">
         <v>43845</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D10" s="9">
         <v>3.3796296296296297E-2</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>443</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -33349,13 +33349,13 @@
       <c r="B11" s="8">
         <v>43845</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D11" s="9">
         <v>3.78587962962963E-2</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>444</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -33384,13 +33384,13 @@
       <c r="B12" s="8">
         <v>43845</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D12" s="9">
         <v>3.8356481481481484E-2</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>445</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -33419,13 +33419,13 @@
       <c r="B13" s="8">
         <v>43846</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>298</v>
       </c>
       <c r="D13" s="9">
         <v>4.0983796296296296E-2</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="21" t="s">
         <v>446</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -33454,13 +33454,13 @@
       <c r="B14" s="8">
         <v>43846</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>298</v>
       </c>
       <c r="D14" s="9">
         <v>4.4108796296296299E-2</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>447</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -33489,13 +33489,13 @@
       <c r="B15" s="8">
         <v>43847</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>299</v>
       </c>
       <c r="D15" s="9">
         <v>4.4224537037037041E-2</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>448</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -33524,13 +33524,13 @@
       <c r="B16" s="8">
         <v>43847</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>299</v>
       </c>
       <c r="D16" s="9">
         <v>4.4409722222222225E-2</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>449</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -33559,13 +33559,13 @@
       <c r="B17" s="8">
         <v>43847</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>299</v>
       </c>
       <c r="D17" s="9">
         <v>4.4791666666666667E-2</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>450</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -33594,13 +33594,13 @@
       <c r="B18" s="8">
         <v>43847</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>299</v>
       </c>
       <c r="D18" s="9">
         <v>4.5428240740740734E-2</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>451</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -33629,13 +33629,13 @@
       <c r="B19" s="8">
         <v>43847</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>299</v>
       </c>
       <c r="D19" s="9">
         <v>4.6956018518518522E-2</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="21" t="s">
         <v>452</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -33664,13 +33664,13 @@
       <c r="B20" s="8">
         <v>43848</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D20" s="9">
         <v>5.1863425925925931E-2</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>453</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -33699,13 +33699,13 @@
       <c r="B21" s="8">
         <v>43848</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D21" s="9">
         <v>5.244212962962963E-2</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>454</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -33734,13 +33734,13 @@
       <c r="B22" s="8">
         <v>43849</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>301</v>
       </c>
       <c r="D22" s="9">
         <v>5.4074074074074073E-2</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>455</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -33769,13 +33769,13 @@
       <c r="B23" s="8">
         <v>43849</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>301</v>
       </c>
       <c r="D23" s="9">
         <v>6.0370370370370373E-2</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>456</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -33804,13 +33804,13 @@
       <c r="B24" s="8">
         <v>43850</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>302</v>
       </c>
       <c r="D24" s="9">
         <v>6.0960648148148146E-2</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>457</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -33839,13 +33839,13 @@
       <c r="B25" s="8">
         <v>43851</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>303</v>
       </c>
       <c r="D25" s="9">
         <v>6.1840277777777779E-2</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>458</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -33874,13 +33874,13 @@
       <c r="B26" s="8">
         <v>43851</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>303</v>
       </c>
       <c r="D26" s="9">
         <v>6.2002314814814809E-2</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>459</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -33909,13 +33909,13 @@
       <c r="B27" s="8">
         <v>43852</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>304</v>
       </c>
       <c r="D27" s="9">
         <v>6.5694444444444444E-2</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>460</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -33944,13 +33944,13 @@
       <c r="B28" s="8">
         <v>43853</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D28" s="9">
         <v>6.6284722222222217E-2</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="21" t="s">
         <v>461</v>
       </c>
       <c r="F28" s="10" t="s">
@@ -33979,13 +33979,13 @@
       <c r="B29" s="8">
         <v>43853</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>305</v>
       </c>
       <c r="D29" s="9">
         <v>6.8599537037037042E-2</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="21" t="s">
         <v>462</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -34014,13 +34014,13 @@
       <c r="B30" s="8">
         <v>43854</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D30" s="9">
         <v>6.9178240740740735E-2</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>463</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -34049,13 +34049,13 @@
       <c r="B31" s="8">
         <v>43854</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D31" s="9">
         <v>7.3055555555555554E-2</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="21" t="s">
         <v>464</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -34084,13 +34084,13 @@
       <c r="B32" s="8">
         <v>43854</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>165</v>
       </c>
       <c r="D32" s="9">
         <v>7.8159722222222214E-2</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>465</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -34119,13 +34119,13 @@
       <c r="B33" s="8">
         <v>43874</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>179</v>
       </c>
       <c r="D33" s="9">
         <v>0.12709490740740739</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>466</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -34154,13 +34154,13 @@
       <c r="B34" s="8">
         <v>43875</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>306</v>
       </c>
       <c r="D34" s="9">
         <v>0.12746527777777777</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="21" t="s">
         <v>467</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -34189,13 +34189,13 @@
       <c r="B35" s="8">
         <v>43875</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>306</v>
       </c>
       <c r="D35" s="9">
         <v>0.12806712962962963</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="21" t="s">
         <v>468</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -34224,13 +34224,13 @@
       <c r="B36" s="8">
         <v>43876</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>307</v>
       </c>
       <c r="D36" s="9">
         <v>0.1287962962962963</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="21" t="s">
         <v>469</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -34259,13 +34259,13 @@
       <c r="B37" s="8">
         <v>43876</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>307</v>
       </c>
       <c r="D37" s="9">
         <v>0.13127314814814814</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="21" t="s">
         <v>470</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -34294,13 +34294,13 @@
       <c r="B38" s="8">
         <v>43878</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>308</v>
       </c>
       <c r="D38" s="9">
         <v>0.13138888888888889</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="21" t="s">
         <v>471</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -34329,13 +34329,13 @@
       <c r="B39" s="8">
         <v>43879</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>309</v>
       </c>
       <c r="D39" s="9">
         <v>0.13258101851851853</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="21" t="s">
         <v>472</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -34364,13 +34364,13 @@
       <c r="B40" s="8">
         <v>43879</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>309</v>
       </c>
       <c r="D40" s="9">
         <v>0.13372685185185185</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="21" t="s">
         <v>473</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -34399,13 +34399,13 @@
       <c r="B41" s="8">
         <v>43879</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>309</v>
       </c>
       <c r="D41" s="9">
         <v>0.13577546296296297</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="21" t="s">
         <v>474</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -34434,13 +34434,13 @@
       <c r="B42" s="8">
         <v>43880</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>310</v>
       </c>
       <c r="D42" s="9">
         <v>0.13934027777777777</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="21" t="s">
         <v>475</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -34469,13 +34469,13 @@
       <c r="B43" s="8">
         <v>43880</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>310</v>
       </c>
       <c r="D43" s="9">
         <v>0.14059027777777777</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="21" t="s">
         <v>476</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -34504,13 +34504,13 @@
       <c r="B44" s="8">
         <v>43881</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>311</v>
       </c>
       <c r="D44" s="9">
         <v>0.14096064814814815</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="21" t="s">
         <v>477</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -34539,13 +34539,13 @@
       <c r="B45" s="8">
         <v>43899</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>312</v>
       </c>
       <c r="D45" s="9">
         <v>0.21266203703703704</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -34574,13 +34574,13 @@
       <c r="B46" s="8">
         <v>43901</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D46" s="9">
         <v>0.21557870370370369</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="21" t="s">
         <v>479</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -34609,13 +34609,13 @@
       <c r="B47" s="8">
         <v>43902</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>314</v>
       </c>
       <c r="D47" s="9">
         <v>0.21653935185185183</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="21" t="s">
         <v>480</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -34644,13 +34644,13 @@
       <c r="B48" s="8">
         <v>43902</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>314</v>
       </c>
       <c r="D48" s="9">
         <v>0.22138888888888889</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="21" t="s">
         <v>481</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -34679,13 +34679,13 @@
       <c r="B49" s="8">
         <v>43904</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>315</v>
       </c>
       <c r="D49" s="9">
         <v>0.22328703703703703</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="21" t="s">
         <v>482</v>
       </c>
       <c r="F49" s="10" t="s">
@@ -34714,13 +34714,13 @@
       <c r="B50" s="8">
         <v>43906</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>316</v>
       </c>
       <c r="D50" s="9">
         <v>0.22396990740740741</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="21" t="s">
         <v>483</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -34749,13 +34749,13 @@
       <c r="B51" s="8">
         <v>43907</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>317</v>
       </c>
       <c r="D51" s="9">
         <v>0.22444444444444445</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="21" t="s">
         <v>484</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -34784,13 +34784,13 @@
       <c r="B52" s="8">
         <v>43908</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>318</v>
       </c>
       <c r="D52" s="9">
         <v>0.22540509259259259</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="21" t="s">
         <v>485</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -34819,13 +34819,13 @@
       <c r="B53" s="8">
         <v>43908</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>318</v>
       </c>
       <c r="D53" s="9">
         <v>0.22833333333333336</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="21" t="s">
         <v>486</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -34854,13 +34854,13 @@
       <c r="B54" s="8">
         <v>43909</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D54" s="9">
         <v>0.23229166666666667</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="21" t="s">
         <v>487</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -34889,13 +34889,13 @@
       <c r="B55" s="8">
         <v>43910</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>320</v>
       </c>
       <c r="D55" s="9">
         <v>0.23396990740740742</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="21" t="s">
         <v>488</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -34924,13 +34924,13 @@
       <c r="B56" s="8">
         <v>43910</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>320</v>
       </c>
       <c r="D56" s="9">
         <v>0.23491898148148149</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="21" t="s">
         <v>489</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -34959,13 +34959,13 @@
       <c r="B57" s="8">
         <v>43911</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>321</v>
       </c>
       <c r="D57" s="9">
         <v>0.23493055555555556</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="21" t="s">
         <v>490</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -34994,13 +34994,13 @@
       <c r="B58" s="8">
         <v>43912</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>322</v>
       </c>
       <c r="D58" s="9">
         <v>0.23899305555555558</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="21" t="s">
         <v>491</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -35029,13 +35029,13 @@
       <c r="B59" s="8">
         <v>43912</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>322</v>
       </c>
       <c r="D59" s="9">
         <v>0.23981481481481481</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="21" t="s">
         <v>492</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -35064,13 +35064,13 @@
       <c r="B60" s="8">
         <v>43913</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D60" s="9">
         <v>0.24082175925925928</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="21" t="s">
         <v>493</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -35099,13 +35099,13 @@
       <c r="B61" s="8">
         <v>43913</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D61" s="9">
         <v>0.24096064814814813</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="21" t="s">
         <v>494</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -35134,13 +35134,13 @@
       <c r="B62" s="8">
         <v>43914</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="18" t="s">
         <v>324</v>
       </c>
       <c r="D62" s="9">
         <v>0.24511574074074075</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="21" t="s">
         <v>495</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -35169,13 +35169,13 @@
       <c r="B63" s="8">
         <v>43914</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>324</v>
       </c>
       <c r="D63" s="9">
         <v>0.24549768518518519</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="21" t="s">
         <v>496</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -35204,13 +35204,13 @@
       <c r="B64" s="8">
         <v>43915</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="18" t="s">
         <v>325</v>
       </c>
       <c r="D64" s="9">
         <v>0.24715277777777778</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="21" t="s">
         <v>497</v>
       </c>
       <c r="F64" s="10" t="s">
@@ -35239,13 +35239,13 @@
       <c r="B65" s="8">
         <v>43915</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>325</v>
       </c>
       <c r="D65" s="9">
         <v>0.24725694444444443</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="21" t="s">
         <v>498</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -35274,13 +35274,13 @@
       <c r="B66" s="8">
         <v>43916</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D66" s="9">
         <v>0.2479861111111111</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="21" t="s">
         <v>499</v>
       </c>
       <c r="F66" s="10" t="s">
@@ -35309,13 +35309,13 @@
       <c r="B67" s="8">
         <v>43916</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D67" s="9">
         <v>0.24921296296296294</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="21" t="s">
         <v>500</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -35344,13 +35344,13 @@
       <c r="B68" s="8">
         <v>43918</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D68" s="9">
         <v>0.24988425925925925</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="21" t="s">
         <v>501</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -35379,13 +35379,13 @@
       <c r="B69" s="8">
         <v>43918</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D69" s="9">
         <v>0.25074074074074076</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="21" t="s">
         <v>502</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -35414,13 +35414,13 @@
       <c r="B70" s="8">
         <v>43919</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="18" t="s">
         <v>328</v>
       </c>
       <c r="D70" s="9">
         <v>0.2540277777777778</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="21" t="s">
         <v>503</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -35449,13 +35449,13 @@
       <c r="B71" s="8">
         <v>43919</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="18" t="s">
         <v>328</v>
       </c>
       <c r="D71" s="9">
         <v>0.25664351851851852</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="21" t="s">
         <v>504</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -35484,13 +35484,13 @@
       <c r="B72" s="8">
         <v>43922</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D72" s="9">
         <v>0.25753472222222223</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="21" t="s">
         <v>505</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -35519,13 +35519,13 @@
       <c r="B73" s="8">
         <v>43922</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D73" s="9">
         <v>0.2595486111111111</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="21" t="s">
         <v>506</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -35554,13 +35554,13 @@
       <c r="B74" s="8">
         <v>43922</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="18" t="s">
         <v>329</v>
       </c>
       <c r="D74" s="9">
         <v>0.26292824074074073</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="21" t="s">
         <v>507</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -35589,13 +35589,13 @@
       <c r="B75" s="8">
         <v>43923</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D75" s="9">
         <v>0.26511574074074074</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="21" t="s">
         <v>508</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -35624,13 +35624,13 @@
       <c r="B76" s="8">
         <v>43924</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="18" t="s">
         <v>331</v>
       </c>
       <c r="D76" s="9">
         <v>0.2714699074074074</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -35659,13 +35659,13 @@
       <c r="B77" s="8">
         <v>43924</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>331</v>
       </c>
       <c r="D77" s="9">
         <v>0.27149305555555553</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="21" t="s">
         <v>510</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -35694,13 +35694,13 @@
       <c r="B78" s="8">
         <v>43925</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D78" s="9">
         <v>0.27436342592592594</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="21" t="s">
         <v>511</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -35729,13 +35729,13 @@
       <c r="B79" s="8">
         <v>43925</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>332</v>
       </c>
       <c r="D79" s="9">
         <v>0.27611111111111114</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="21" t="s">
         <v>512</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -35764,13 +35764,13 @@
       <c r="B80" s="8">
         <v>43927</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="18" t="s">
         <v>192</v>
       </c>
       <c r="D80" s="9">
         <v>0.27790509259259261</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="21" t="s">
         <v>513</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -35799,13 +35799,13 @@
       <c r="B81" s="8">
         <v>43927</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>192</v>
       </c>
       <c r="D81" s="9">
         <v>0.28229166666666666</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="21" t="s">
         <v>514</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -35834,13 +35834,13 @@
       <c r="B82" s="8">
         <v>43949</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D82" s="9">
         <v>0.33983796296296293</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="21" t="s">
         <v>515</v>
       </c>
       <c r="F82" s="10" t="s">
@@ -35869,13 +35869,13 @@
       <c r="B83" s="8">
         <v>43949</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="18" t="s">
         <v>207</v>
       </c>
       <c r="D83" s="9">
         <v>0.34092592592592591</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="21" t="s">
         <v>516</v>
       </c>
       <c r="F83" s="10" t="s">
@@ -35904,13 +35904,13 @@
       <c r="B84" s="8">
         <v>43952</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>333</v>
       </c>
       <c r="D84" s="9">
         <v>0.34202546296296293</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="21" t="s">
         <v>517</v>
       </c>
       <c r="F84" s="10" t="s">
@@ -35939,13 +35939,13 @@
       <c r="B85" s="8">
         <v>43953</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>334</v>
       </c>
       <c r="D85" s="9">
         <v>0.34468750000000004</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="21" t="s">
         <v>518</v>
       </c>
       <c r="F85" s="10" t="s">
@@ -35974,13 +35974,13 @@
       <c r="B86" s="8">
         <v>43954</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D86" s="9">
         <v>0.34533564814814816</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="21" t="s">
         <v>519</v>
       </c>
       <c r="F86" s="10" t="s">
@@ -36009,13 +36009,13 @@
       <c r="B87" s="8">
         <v>43955</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="18" t="s">
         <v>336</v>
       </c>
       <c r="D87" s="9">
         <v>0.35194444444444445</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="21" t="s">
         <v>520</v>
       </c>
       <c r="F87" s="10" t="s">
@@ -36044,13 +36044,13 @@
       <c r="B88" s="8">
         <v>43955</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>336</v>
       </c>
       <c r="D88" s="9">
         <v>0.35287037037037039</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="21" t="s">
         <v>521</v>
       </c>
       <c r="F88" s="10" t="s">
@@ -36079,13 +36079,13 @@
       <c r="B89" s="8">
         <v>43955</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>336</v>
       </c>
       <c r="D89" s="9">
         <v>0.35291666666666671</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="21" t="s">
         <v>522</v>
       </c>
       <c r="F89" s="10" t="s">
@@ -36114,13 +36114,13 @@
       <c r="B90" s="8">
         <v>43957</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>337</v>
       </c>
       <c r="D90" s="9">
         <v>0.35377314814814814</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="21" t="s">
         <v>523</v>
       </c>
       <c r="F90" s="10" t="s">
@@ -36149,13 +36149,13 @@
       <c r="B91" s="8">
         <v>43958</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="18" t="s">
         <v>338</v>
       </c>
       <c r="D91" s="9">
         <v>0.35509259259259257</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="21" t="s">
         <v>524</v>
       </c>
       <c r="F91" s="10" t="s">
@@ -36184,13 +36184,13 @@
       <c r="B92" s="8">
         <v>43958</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="18" t="s">
         <v>338</v>
       </c>
       <c r="D92" s="9">
         <v>0.35583333333333328</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="21" t="s">
         <v>525</v>
       </c>
       <c r="F92" s="10" t="s">
@@ -36219,13 +36219,13 @@
       <c r="B93" s="8">
         <v>43959</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="18" t="s">
         <v>339</v>
       </c>
       <c r="D93" s="9">
         <v>0.35646990740740742</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="21" t="s">
         <v>526</v>
       </c>
       <c r="F93" s="10" t="s">
@@ -36254,13 +36254,13 @@
       <c r="B94" s="8">
         <v>43960</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="18" t="s">
         <v>340</v>
       </c>
       <c r="D94" s="9">
         <v>0.35952546296296295</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="21" t="s">
         <v>527</v>
       </c>
       <c r="F94" s="10" t="s">
@@ -36289,13 +36289,13 @@
       <c r="B95" s="8">
         <v>43960</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="18" t="s">
         <v>340</v>
       </c>
       <c r="D95" s="9">
         <v>0.36101851851851857</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="21" t="s">
         <v>528</v>
       </c>
       <c r="F95" s="10" t="s">
@@ -36324,13 +36324,13 @@
       <c r="B96" s="8">
         <v>43960</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="18" t="s">
         <v>340</v>
       </c>
       <c r="D96" s="9">
         <v>0.36121527777777779</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="21" t="s">
         <v>529</v>
       </c>
       <c r="F96" s="10" t="s">
@@ -36359,13 +36359,13 @@
       <c r="B97" s="8">
         <v>43960</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="18" t="s">
         <v>340</v>
       </c>
       <c r="D97" s="9">
         <v>0.36412037037037037</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="21" t="s">
         <v>530</v>
       </c>
       <c r="F97" s="10" t="s">
@@ -36394,13 +36394,13 @@
       <c r="B98" s="8">
         <v>43961</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="18" t="s">
         <v>341</v>
       </c>
       <c r="D98" s="9">
         <v>0.36498842592592595</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="21" t="s">
         <v>531</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -36429,13 +36429,13 @@
       <c r="B99" s="8">
         <v>43962</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>342</v>
       </c>
       <c r="D99" s="9">
         <v>0.36660879629629628</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="21" t="s">
         <v>532</v>
       </c>
       <c r="F99" s="10" t="s">
@@ -36464,13 +36464,13 @@
       <c r="B100" s="8">
         <v>43962</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="18" t="s">
         <v>342</v>
       </c>
       <c r="D100" s="9">
         <v>0.36690972222222223</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="21" t="s">
         <v>533</v>
       </c>
       <c r="F100" s="10" t="s">
@@ -36499,13 +36499,13 @@
       <c r="B101" s="8">
         <v>43964</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="18" t="s">
         <v>343</v>
       </c>
       <c r="D101" s="9">
         <v>0.37515046296296295</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="21" t="s">
         <v>534</v>
       </c>
       <c r="F101" s="10" t="s">
@@ -36534,13 +36534,13 @@
       <c r="B102" s="8">
         <v>43964</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="18" t="s">
         <v>343</v>
       </c>
       <c r="D102" s="9">
         <v>0.37690972222222219</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="21" t="s">
         <v>535</v>
       </c>
       <c r="F102" s="10" t="s">
@@ -36569,13 +36569,13 @@
       <c r="B103" s="8">
         <v>43966</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="18" t="s">
         <v>344</v>
       </c>
       <c r="D103" s="9">
         <v>0.37839120370370366</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="21" t="s">
         <v>536</v>
       </c>
       <c r="F103" s="10" t="s">
@@ -36604,13 +36604,13 @@
       <c r="B104" s="8">
         <v>43966</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="18" t="s">
         <v>344</v>
       </c>
       <c r="D104" s="9">
         <v>0.38086805555555553</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="21" t="s">
         <v>537</v>
       </c>
       <c r="F104" s="10" t="s">
@@ -36639,13 +36639,13 @@
       <c r="B105" s="8">
         <v>43966</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="18" t="s">
         <v>344</v>
       </c>
       <c r="D105" s="9">
         <v>0.3830324074074074</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="21" t="s">
         <v>538</v>
       </c>
       <c r="F105" s="10" t="s">
@@ -36674,13 +36674,13 @@
       <c r="B106" s="8">
         <v>43966</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="18" t="s">
         <v>344</v>
       </c>
       <c r="D106" s="9">
         <v>0.38729166666666665</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="21" t="s">
         <v>539</v>
       </c>
       <c r="F106" s="10" t="s">
@@ -36709,13 +36709,13 @@
       <c r="B107" s="8">
         <v>43968</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="18" t="s">
         <v>345</v>
       </c>
       <c r="D107" s="9">
         <v>0.38787037037037037</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="21" t="s">
         <v>540</v>
       </c>
       <c r="F107" s="10" t="s">
@@ -36744,13 +36744,13 @@
       <c r="B108" s="8">
         <v>43968</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="18" t="s">
         <v>345</v>
       </c>
       <c r="D108" s="9">
         <v>0.38921296296296298</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="21" t="s">
         <v>541</v>
       </c>
       <c r="F108" s="10" t="s">
@@ -36779,13 +36779,13 @@
       <c r="B109" s="8">
         <v>43969</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="18" t="s">
         <v>346</v>
       </c>
       <c r="D109" s="9">
         <v>0.39082175925925927</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="21" t="s">
         <v>542</v>
       </c>
       <c r="F109" s="10" t="s">
@@ -36814,13 +36814,13 @@
       <c r="B110" s="8">
         <v>43970</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="18" t="s">
         <v>347</v>
       </c>
       <c r="D110" s="9">
         <v>0.3919212962962963</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="21" t="s">
         <v>543</v>
       </c>
       <c r="F110" s="10" t="s">
@@ -36849,13 +36849,13 @@
       <c r="B111" s="8">
         <v>44003</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="18" t="s">
         <v>348</v>
       </c>
       <c r="D111" s="9">
         <v>0.46760416666666665</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="21" t="s">
         <v>544</v>
       </c>
       <c r="F111" s="10" t="s">
@@ -36884,13 +36884,13 @@
       <c r="B112" s="8">
         <v>44004</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D112" s="9">
         <v>0.46819444444444441</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="21" t="s">
         <v>545</v>
       </c>
       <c r="F112" s="10" t="s">
@@ -36919,13 +36919,13 @@
       <c r="B113" s="8">
         <v>44004</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D113" s="9">
         <v>0.4685185185185185</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="21" t="s">
         <v>546</v>
       </c>
       <c r="F113" s="10" t="s">
@@ -36954,13 +36954,13 @@
       <c r="B114" s="8">
         <v>44004</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D114" s="9">
         <v>0.46910879629629632</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="21" t="s">
         <v>547</v>
       </c>
       <c r="F114" s="10" t="s">
@@ -36989,13 +36989,13 @@
       <c r="B115" s="8">
         <v>44005</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D115" s="9">
         <v>0.4697453703703704</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="21" t="s">
         <v>548</v>
       </c>
       <c r="F115" s="10" t="s">
@@ -37024,13 +37024,13 @@
       <c r="B116" s="8">
         <v>44006</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="18" t="s">
         <v>351</v>
       </c>
       <c r="D116" s="9">
         <v>0.4698032407407407</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="21" t="s">
         <v>549</v>
       </c>
       <c r="F116" s="10" t="s">
@@ -37059,13 +37059,13 @@
       <c r="B117" s="8">
         <v>44006</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="18" t="s">
         <v>351</v>
       </c>
       <c r="D117" s="9">
         <v>0.47355324074074073</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="21" t="s">
         <v>550</v>
       </c>
       <c r="F117" s="10" t="s">
@@ -37094,13 +37094,13 @@
       <c r="B118" s="8">
         <v>44008</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D118" s="9">
         <v>0.47612268518518519</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E118" s="21" t="s">
         <v>551</v>
       </c>
       <c r="F118" s="10" t="s">
@@ -37129,13 +37129,13 @@
       <c r="B119" s="8">
         <v>44008</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="18" t="s">
         <v>352</v>
       </c>
       <c r="D119" s="9">
         <v>0.47737268518518516</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="E119" s="21" t="s">
         <v>552</v>
       </c>
       <c r="F119" s="10" t="s">
@@ -37164,13 +37164,13 @@
       <c r="B120" s="8">
         <v>44010</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="18" t="s">
         <v>353</v>
       </c>
       <c r="D120" s="9">
         <v>0.48060185185185184</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="21" t="s">
         <v>553</v>
       </c>
       <c r="F120" s="10" t="s">
@@ -37199,13 +37199,13 @@
       <c r="B121" s="8">
         <v>44013</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="18" t="s">
         <v>354</v>
       </c>
       <c r="D121" s="9">
         <v>0.48313657407407407</v>
       </c>
-      <c r="E121" s="23" t="s">
+      <c r="E121" s="21" t="s">
         <v>554</v>
       </c>
       <c r="F121" s="10" t="s">
@@ -37234,13 +37234,13 @@
       <c r="B122" s="8">
         <v>44013</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="18" t="s">
         <v>354</v>
       </c>
       <c r="D122" s="9">
         <v>0.48324074074074069</v>
       </c>
-      <c r="E122" s="23" t="s">
+      <c r="E122" s="21" t="s">
         <v>555</v>
       </c>
       <c r="F122" s="10" t="s">
@@ -37269,13 +37269,13 @@
       <c r="B123" s="8">
         <v>44013</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="18" t="s">
         <v>354</v>
       </c>
       <c r="D123" s="9">
         <v>0.48505787037037035</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="E123" s="21" t="s">
         <v>556</v>
       </c>
       <c r="F123" s="10" t="s">
@@ -37304,13 +37304,13 @@
       <c r="B124" s="8">
         <v>44014</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="18" t="s">
         <v>355</v>
       </c>
       <c r="D124" s="9">
         <v>0.48630787037037032</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="21" t="s">
         <v>557</v>
       </c>
       <c r="F124" s="10" t="s">
@@ -37339,13 +37339,13 @@
       <c r="B125" s="8">
         <v>44014</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="18" t="s">
         <v>355</v>
       </c>
       <c r="D125" s="9">
         <v>0.48657407407407405</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="21" t="s">
         <v>558</v>
       </c>
       <c r="F125" s="10" t="s">
@@ -37374,13 +37374,13 @@
       <c r="B126" s="8">
         <v>44014</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="18" t="s">
         <v>355</v>
       </c>
       <c r="D126" s="9">
         <v>0.4890856481481482</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="21" t="s">
         <v>559</v>
       </c>
       <c r="F126" s="10" t="s">
@@ -37409,13 +37409,13 @@
       <c r="B127" s="8">
         <v>44015</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D127" s="9">
         <v>0.49025462962962968</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="21" t="s">
         <v>560</v>
       </c>
       <c r="F127" s="10" t="s">
@@ -37444,13 +37444,13 @@
       <c r="B128" s="8">
         <v>44016</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="18" t="s">
         <v>357</v>
       </c>
       <c r="D128" s="9">
         <v>0.49249999999999999</v>
       </c>
-      <c r="E128" s="23" t="s">
+      <c r="E128" s="21" t="s">
         <v>561</v>
       </c>
       <c r="F128" s="10" t="s">
@@ -37479,13 +37479,13 @@
       <c r="B129" s="8">
         <v>44017</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="18" t="s">
         <v>358</v>
       </c>
       <c r="D129" s="9">
         <v>0.49641203703703707</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="E129" s="21" t="s">
         <v>562</v>
       </c>
       <c r="F129" s="10" t="s">
@@ -37514,13 +37514,13 @@
       <c r="B130" s="8">
         <v>44018</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="18" t="s">
         <v>359</v>
       </c>
       <c r="D130" s="9">
         <v>0.49851851851851853</v>
       </c>
-      <c r="E130" s="23" t="s">
+      <c r="E130" s="21" t="s">
         <v>563</v>
       </c>
       <c r="F130" s="10" t="s">
@@ -37549,13 +37549,13 @@
       <c r="B131" s="8">
         <v>44018</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="18" t="s">
         <v>359</v>
       </c>
       <c r="D131" s="9">
         <v>0.50026620370370367</v>
       </c>
-      <c r="E131" s="23" t="s">
+      <c r="E131" s="21" t="s">
         <v>564</v>
       </c>
       <c r="F131" s="10" t="s">
@@ -37584,13 +37584,13 @@
       <c r="B132" s="8">
         <v>44018</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="18" t="s">
         <v>359</v>
       </c>
       <c r="D132" s="9">
         <v>0.50078703703703698</v>
       </c>
-      <c r="E132" s="23" t="s">
+      <c r="E132" s="21" t="s">
         <v>565</v>
       </c>
       <c r="F132" s="10" t="s">
@@ -37619,13 +37619,13 @@
       <c r="B133" s="8">
         <v>44019</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="18" t="s">
         <v>360</v>
       </c>
       <c r="D133" s="9">
         <v>0.50114583333333329</v>
       </c>
-      <c r="E133" s="23" t="s">
+      <c r="E133" s="21" t="s">
         <v>566</v>
       </c>
       <c r="F133" s="10" t="s">
@@ -37654,13 +37654,13 @@
       <c r="B134" s="8">
         <v>44019</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="18" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9">
         <v>0.5033333333333333</v>
       </c>
-      <c r="E134" s="23" t="s">
+      <c r="E134" s="21" t="s">
         <v>567</v>
       </c>
       <c r="F134" s="10" t="s">
@@ -37689,13 +37689,13 @@
       <c r="B135" s="8">
         <v>44020</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="18" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9">
         <v>0.50384259259259256</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="21" t="s">
         <v>568</v>
       </c>
       <c r="F135" s="10" t="s">
@@ -37724,13 +37724,13 @@
       <c r="B136" s="8">
         <v>44021</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="18" t="s">
         <v>231</v>
       </c>
       <c r="D136" s="9">
         <v>0.50641203703703697</v>
       </c>
-      <c r="E136" s="23" t="s">
+      <c r="E136" s="21" t="s">
         <v>569</v>
       </c>
       <c r="F136" s="10" t="s">
@@ -37759,13 +37759,13 @@
       <c r="B137" s="8">
         <v>44021</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="18" t="s">
         <v>231</v>
       </c>
       <c r="D137" s="9">
         <v>0.50649305555555557</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="E137" s="21" t="s">
         <v>570</v>
       </c>
       <c r="F137" s="10" t="s">
@@ -37794,13 +37794,13 @@
       <c r="B138" s="8">
         <v>44039</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="18" t="s">
         <v>362</v>
       </c>
       <c r="D138" s="9">
         <v>0.55391203703703706</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E138" s="21" t="s">
         <v>571</v>
       </c>
       <c r="F138" s="10" t="s">
@@ -37829,13 +37829,13 @@
       <c r="B139" s="8">
         <v>44040</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D139" s="9">
         <v>0.55569444444444438</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="21" t="s">
         <v>572</v>
       </c>
       <c r="F139" s="10" t="s">
@@ -37864,13 +37864,13 @@
       <c r="B140" s="8">
         <v>44041</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="18" t="s">
         <v>364</v>
       </c>
       <c r="D140" s="9">
         <v>0.55797453703703703</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" s="21" t="s">
         <v>573</v>
       </c>
       <c r="F140" s="10" t="s">
@@ -37899,13 +37899,13 @@
       <c r="B141" s="8">
         <v>44041</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="18" t="s">
         <v>364</v>
       </c>
       <c r="D141" s="9">
         <v>0.56857638888888895</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" s="21" t="s">
         <v>574</v>
       </c>
       <c r="F141" s="10" t="s">
@@ -37934,13 +37934,13 @@
       <c r="B142" s="8">
         <v>44041</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="18" t="s">
         <v>364</v>
       </c>
       <c r="D142" s="9">
         <v>0.57039351851851849</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="21" t="s">
         <v>575</v>
       </c>
       <c r="F142" s="10" t="s">
@@ -37969,13 +37969,13 @@
       <c r="B143" s="8">
         <v>44044</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D143" s="9">
         <v>0.57393518518518516</v>
       </c>
-      <c r="E143" s="23" t="s">
+      <c r="E143" s="21" t="s">
         <v>576</v>
       </c>
       <c r="F143" s="10" t="s">
@@ -38004,13 +38004,13 @@
       <c r="B144" s="8">
         <v>44045</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="18" t="s">
         <v>366</v>
       </c>
       <c r="D144" s="9">
         <v>0.57396990740740739</v>
       </c>
-      <c r="E144" s="23" t="s">
+      <c r="E144" s="21" t="s">
         <v>577</v>
       </c>
       <c r="F144" s="10" t="s">
@@ -38039,13 +38039,13 @@
       <c r="B145" s="8">
         <v>44045</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="18" t="s">
         <v>366</v>
       </c>
       <c r="D145" s="9">
         <v>0.57917824074074076</v>
       </c>
-      <c r="E145" s="23" t="s">
+      <c r="E145" s="21" t="s">
         <v>578</v>
       </c>
       <c r="F145" s="10" t="s">
@@ -38074,13 +38074,13 @@
       <c r="B146" s="8">
         <v>44046</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="18" t="s">
         <v>367</v>
       </c>
       <c r="D146" s="9">
         <v>0.58535879629629628</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" s="21" t="s">
         <v>579</v>
       </c>
       <c r="F146" s="10" t="s">
@@ -38109,13 +38109,13 @@
       <c r="B147" s="8">
         <v>44049</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D147" s="9">
         <v>0.59127314814814813</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="21" t="s">
         <v>580</v>
       </c>
       <c r="F147" s="10" t="s">
@@ -38144,13 +38144,13 @@
       <c r="B148" s="8">
         <v>44051</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="18" t="s">
         <v>369</v>
       </c>
       <c r="D148" s="9">
         <v>0.59128472222222228</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="21" t="s">
         <v>581</v>
       </c>
       <c r="F148" s="10" t="s">
@@ -38179,13 +38179,13 @@
       <c r="B149" s="8">
         <v>44051</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="18" t="s">
         <v>369</v>
       </c>
       <c r="D149" s="9">
         <v>0.59373842592592596</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="21" t="s">
         <v>582</v>
       </c>
       <c r="F149" s="10" t="s">
@@ -38214,13 +38214,13 @@
       <c r="B150" s="8">
         <v>44052</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="18" t="s">
         <v>370</v>
       </c>
       <c r="D150" s="9">
         <v>0.60047453703703701</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="21" t="s">
         <v>583</v>
       </c>
       <c r="F150" s="10" t="s">
@@ -38249,13 +38249,13 @@
       <c r="B151" s="8">
         <v>44052</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="18" t="s">
         <v>370</v>
       </c>
       <c r="D151" s="9">
         <v>0.60368055555555555</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="21" t="s">
         <v>584</v>
       </c>
       <c r="F151" s="10" t="s">
@@ -38284,13 +38284,13 @@
       <c r="B152" s="8">
         <v>44053</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="18" t="s">
         <v>371</v>
       </c>
       <c r="D152" s="9">
         <v>0.60385416666666669</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="21" t="s">
         <v>585</v>
       </c>
       <c r="F152" s="10" t="s">
@@ -38319,13 +38319,13 @@
       <c r="B153" s="8">
         <v>44054</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="18" t="s">
         <v>372</v>
       </c>
       <c r="D153" s="9">
         <v>0.60646990740740747</v>
       </c>
-      <c r="E153" s="23" t="s">
+      <c r="E153" s="21" t="s">
         <v>586</v>
       </c>
       <c r="F153" s="10" t="s">
@@ -38354,13 +38354,13 @@
       <c r="B154" s="8">
         <v>44054</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="18" t="s">
         <v>372</v>
       </c>
       <c r="D154" s="9">
         <v>0.60896990740740742</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="21" t="s">
         <v>587</v>
       </c>
       <c r="F154" s="10" t="s">
@@ -38389,13 +38389,13 @@
       <c r="B155" s="8">
         <v>44055</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="18" t="s">
         <v>373</v>
       </c>
       <c r="D155" s="9">
         <v>0.61832175925925925</v>
       </c>
-      <c r="E155" s="23" t="s">
+      <c r="E155" s="21" t="s">
         <v>588</v>
       </c>
       <c r="F155" s="10" t="s">
@@ -38424,13 +38424,13 @@
       <c r="B156" s="8">
         <v>44056</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D156" s="9">
         <v>0.61998842592592596</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="21" t="s">
         <v>589</v>
       </c>
       <c r="F156" s="10" t="s">
@@ -38459,13 +38459,13 @@
       <c r="B157" s="8">
         <v>44057</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="18" t="s">
         <v>375</v>
       </c>
       <c r="D157" s="9">
         <v>0.62041666666666673</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="21" t="s">
         <v>590</v>
       </c>
       <c r="F157" s="10" t="s">
@@ -38494,13 +38494,13 @@
       <c r="B158" s="8">
         <v>44059</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="18" t="s">
         <v>376</v>
       </c>
       <c r="D158" s="9">
         <v>0.62089120370370365</v>
       </c>
-      <c r="E158" s="23" t="s">
+      <c r="E158" s="21" t="s">
         <v>591</v>
       </c>
       <c r="F158" s="10" t="s">
@@ -38529,13 +38529,13 @@
       <c r="B159" s="8">
         <v>44060</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D159" s="9">
         <v>0.62105324074074075</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" s="21" t="s">
         <v>592</v>
       </c>
       <c r="F159" s="10" t="s">
@@ -38564,13 +38564,13 @@
       <c r="B160" s="8">
         <v>44060</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="18" t="s">
         <v>377</v>
       </c>
       <c r="D160" s="9">
         <v>0.62841435185185179</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="21" t="s">
         <v>593</v>
       </c>
       <c r="F160" s="10" t="s">
@@ -38599,13 +38599,13 @@
       <c r="B161" s="8">
         <v>44061</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D161" s="9">
         <v>0.6284953703703704</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="21" t="s">
         <v>594</v>
       </c>
       <c r="F161" s="10" t="s">
@@ -38634,13 +38634,13 @@
       <c r="B162" s="8">
         <v>44061</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D162" s="9">
         <v>0.62876157407407407</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" s="21" t="s">
         <v>595</v>
       </c>
       <c r="F162" s="10" t="s">
@@ -38669,13 +38669,13 @@
       <c r="B163" s="8">
         <v>44061</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D163" s="9">
         <v>0.63490740740740736</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="21" t="s">
         <v>596</v>
       </c>
       <c r="F163" s="10" t="s">
@@ -38704,13 +38704,13 @@
       <c r="B164" s="8">
         <v>44061</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="18" t="s">
         <v>378</v>
       </c>
       <c r="D164" s="9">
         <v>0.63598379629629631</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E164" s="21" t="s">
         <v>597</v>
       </c>
       <c r="F164" s="10" t="s">
@@ -38739,13 +38739,13 @@
       <c r="B165" s="8">
         <v>44062</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="18" t="s">
         <v>379</v>
       </c>
       <c r="D165" s="9">
         <v>0.63623842592592594</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" s="21" t="s">
         <v>598</v>
       </c>
       <c r="F165" s="10" t="s">
@@ -38774,13 +38774,13 @@
       <c r="B166" s="8">
         <v>44063</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="18" t="s">
         <v>380</v>
       </c>
       <c r="D166" s="9">
         <v>0.64203703703703707</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="21" t="s">
         <v>599</v>
       </c>
       <c r="F166" s="10" t="s">
@@ -38809,13 +38809,13 @@
       <c r="B167" s="8">
         <v>44064</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="18" t="s">
         <v>381</v>
       </c>
       <c r="D167" s="9">
         <v>0.64368055555555559</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F167" s="10" t="s">
@@ -38844,13 +38844,13 @@
       <c r="B168" s="8">
         <v>44064</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="18" t="s">
         <v>381</v>
       </c>
       <c r="D168" s="9">
         <v>0.64392361111111118</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="21" t="s">
         <v>601</v>
       </c>
       <c r="F168" s="10" t="s">
@@ -38879,13 +38879,13 @@
       <c r="B169" s="8">
         <v>44065</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="18" t="s">
         <v>382</v>
       </c>
       <c r="D169" s="9">
         <v>0.64763888888888888</v>
       </c>
-      <c r="E169" s="23" t="s">
+      <c r="E169" s="21" t="s">
         <v>602</v>
       </c>
       <c r="F169" s="10" t="s">
@@ -38914,13 +38914,13 @@
       <c r="B170" s="8">
         <v>44065</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="18" t="s">
         <v>382</v>
       </c>
       <c r="D170" s="9">
         <v>0.64833333333333332</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" s="21" t="s">
         <v>603</v>
       </c>
       <c r="F170" s="10" t="s">
@@ -38949,13 +38949,13 @@
       <c r="B171" s="8">
         <v>44065</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="18" t="s">
         <v>382</v>
       </c>
       <c r="D171" s="9">
         <v>0.65063657407407405</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="21" t="s">
         <v>604</v>
       </c>
       <c r="F171" s="10" t="s">
@@ -38984,13 +38984,13 @@
       <c r="B172" s="8">
         <v>44066</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D172" s="9">
         <v>0.65126157407407403</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="21" t="s">
         <v>605</v>
       </c>
       <c r="F172" s="10" t="s">
@@ -39019,13 +39019,13 @@
       <c r="B173" s="8">
         <v>44066</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D173" s="9">
         <v>0.65337962962962959</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="21" t="s">
         <v>606</v>
       </c>
       <c r="F173" s="10" t="s">
@@ -39054,13 +39054,13 @@
       <c r="B174" s="8">
         <v>44066</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D174" s="9">
         <v>0.65577546296296296</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="21" t="s">
         <v>607</v>
       </c>
       <c r="F174" s="10" t="s">
@@ -39089,13 +39089,13 @@
       <c r="B175" s="8">
         <v>44066</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="18" t="s">
         <v>383</v>
       </c>
       <c r="D175" s="9">
         <v>0.66609953703703706</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="21" t="s">
         <v>608</v>
       </c>
       <c r="F175" s="10" t="s">
@@ -39124,13 +39124,13 @@
       <c r="B176" s="8">
         <v>44067</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D176" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="21" t="s">
         <v>609</v>
       </c>
       <c r="F176" s="10" t="s">
@@ -39159,13 +39159,13 @@
       <c r="B177" s="8">
         <v>44067</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="18" t="s">
         <v>384</v>
       </c>
       <c r="D177" s="9">
         <v>0.66756944444444455</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="21" t="s">
         <v>610</v>
       </c>
       <c r="F177" s="10" t="s">
@@ -39194,13 +39194,13 @@
       <c r="B178" s="8">
         <v>44068</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="18" t="s">
         <v>385</v>
       </c>
       <c r="D178" s="9">
         <v>0.66789351851851853</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="21" t="s">
         <v>611</v>
       </c>
       <c r="F178" s="10" t="s">
@@ -39229,13 +39229,13 @@
       <c r="B179" s="8">
         <v>44068</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="18" t="s">
         <v>385</v>
       </c>
       <c r="D179" s="9">
         <v>0.66822916666666676</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="21" t="s">
         <v>612</v>
       </c>
       <c r="F179" s="10" t="s">
@@ -39264,13 +39264,13 @@
       <c r="B180" s="8">
         <v>44068</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="18" t="s">
         <v>385</v>
       </c>
       <c r="D180" s="9">
         <v>0.66921296296296295</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E180" s="21" t="s">
         <v>613</v>
       </c>
       <c r="F180" s="10" t="s">
@@ -39299,13 +39299,13 @@
       <c r="B181" s="8">
         <v>44069</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="18" t="s">
         <v>386</v>
       </c>
       <c r="D181" s="9">
         <v>0.6700694444444445</v>
       </c>
-      <c r="E181" s="23" t="s">
+      <c r="E181" s="21" t="s">
         <v>614</v>
       </c>
       <c r="F181" s="10" t="s">
@@ -39334,13 +39334,13 @@
       <c r="B182" s="8">
         <v>44071</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="18" t="s">
         <v>387</v>
       </c>
       <c r="D182" s="9">
         <v>0.67069444444444448</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="21" t="s">
         <v>615</v>
       </c>
       <c r="F182" s="10" t="s">
@@ -39369,13 +39369,13 @@
       <c r="B183" s="8">
         <v>44071</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="18" t="s">
         <v>387</v>
       </c>
       <c r="D183" s="9">
         <v>0.67153935185185187</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="21" t="s">
         <v>616</v>
       </c>
       <c r="F183" s="10" t="s">
@@ -39404,13 +39404,13 @@
       <c r="B184" s="8">
         <v>44075</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="18" t="s">
         <v>388</v>
       </c>
       <c r="D184" s="9">
         <v>0.67202546296296306</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="21" t="s">
         <v>617</v>
       </c>
       <c r="F184" s="10" t="s">
@@ -39439,13 +39439,13 @@
       <c r="B185" s="8">
         <v>44076</v>
       </c>
-      <c r="C185" s="20" t="s">
+      <c r="C185" s="18" t="s">
         <v>247</v>
       </c>
       <c r="D185" s="9">
         <v>0.67746527777777776</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" s="21" t="s">
         <v>618</v>
       </c>
       <c r="F185" s="10" t="s">
@@ -39474,13 +39474,13 @@
       <c r="B186" s="8">
         <v>44076</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C186" s="18" t="s">
         <v>247</v>
       </c>
       <c r="D186" s="9">
         <v>0.67984953703703699</v>
       </c>
-      <c r="E186" s="23" t="s">
+      <c r="E186" s="21" t="s">
         <v>619</v>
       </c>
       <c r="F186" s="10" t="s">
@@ -39509,13 +39509,13 @@
       <c r="B187" s="8">
         <v>44101</v>
       </c>
-      <c r="C187" s="20" t="s">
+      <c r="C187" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D187" s="9">
         <v>0.75789351851851849</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="21" t="s">
         <v>620</v>
       </c>
       <c r="F187" s="10" t="s">
@@ -39544,13 +39544,13 @@
       <c r="B188" s="8">
         <v>44101</v>
       </c>
-      <c r="C188" s="20" t="s">
+      <c r="C188" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D188" s="9">
         <v>0.76393518518518511</v>
       </c>
-      <c r="E188" s="23" t="s">
+      <c r="E188" s="21" t="s">
         <v>621</v>
       </c>
       <c r="F188" s="10" t="s">
@@ -39579,13 +39579,13 @@
       <c r="B189" s="8">
         <v>44101</v>
       </c>
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D189" s="9">
         <v>0.7648611111111111</v>
       </c>
-      <c r="E189" s="23" t="s">
+      <c r="E189" s="21" t="s">
         <v>622</v>
       </c>
       <c r="F189" s="10" t="s">
@@ -39614,13 +39614,13 @@
       <c r="B190" s="8">
         <v>44101</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D190" s="9">
         <v>0.77063657407407404</v>
       </c>
-      <c r="E190" s="23" t="s">
+      <c r="E190" s="21" t="s">
         <v>623</v>
       </c>
       <c r="F190" s="10" t="s">
@@ -39649,13 +39649,13 @@
       <c r="B191" s="8">
         <v>44102</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="18" t="s">
         <v>390</v>
       </c>
       <c r="D191" s="9">
         <v>0.77307870370370368</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="E191" s="21" t="s">
         <v>624</v>
       </c>
       <c r="F191" s="10" t="s">
@@ -39684,13 +39684,13 @@
       <c r="B192" s="8">
         <v>44102</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="18" t="s">
         <v>390</v>
       </c>
       <c r="D192" s="9">
         <v>0.77436342592592589</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="E192" s="21" t="s">
         <v>625</v>
       </c>
       <c r="F192" s="10" t="s">
@@ -39719,13 +39719,13 @@
       <c r="B193" s="8">
         <v>44102</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="18" t="s">
         <v>390</v>
       </c>
       <c r="D193" s="9">
         <v>0.77464120370370371</v>
       </c>
-      <c r="E193" s="23" t="s">
+      <c r="E193" s="21" t="s">
         <v>626</v>
       </c>
       <c r="F193" s="10" t="s">
@@ -39754,13 +39754,13 @@
       <c r="B194" s="8">
         <v>44105</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="18" t="s">
         <v>391</v>
       </c>
       <c r="D194" s="9">
         <v>0.77466435185185178</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="E194" s="21" t="s">
         <v>627</v>
       </c>
       <c r="F194" s="10" t="s">
@@ -39789,13 +39789,13 @@
       <c r="B195" s="8">
         <v>44105</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C195" s="18" t="s">
         <v>391</v>
       </c>
       <c r="D195" s="9">
         <v>0.78076388888888892</v>
       </c>
-      <c r="E195" s="23" t="s">
+      <c r="E195" s="21" t="s">
         <v>628</v>
       </c>
       <c r="F195" s="10" t="s">
@@ -39824,13 +39824,13 @@
       <c r="B196" s="8">
         <v>44106</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="18" t="s">
         <v>392</v>
       </c>
       <c r="D196" s="9">
         <v>0.78135416666666668</v>
       </c>
-      <c r="E196" s="23" t="s">
+      <c r="E196" s="21" t="s">
         <v>629</v>
       </c>
       <c r="F196" s="10" t="s">
@@ -39859,13 +39859,13 @@
       <c r="B197" s="8">
         <v>44107</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="18" t="s">
         <v>393</v>
       </c>
       <c r="D197" s="9">
         <v>0.78452546296296299</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="E197" s="21" t="s">
         <v>630</v>
       </c>
       <c r="F197" s="10" t="s">
@@ -39894,13 +39894,13 @@
       <c r="B198" s="8">
         <v>44108</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="18" t="s">
         <v>394</v>
       </c>
       <c r="D198" s="9">
         <v>0.78605324074074068</v>
       </c>
-      <c r="E198" s="23" t="s">
+      <c r="E198" s="21" t="s">
         <v>631</v>
       </c>
       <c r="F198" s="10" t="s">
@@ -39929,13 +39929,13 @@
       <c r="B199" s="8">
         <v>44108</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="18" t="s">
         <v>394</v>
       </c>
       <c r="D199" s="9">
         <v>0.78947916666666673</v>
       </c>
-      <c r="E199" s="23" t="s">
+      <c r="E199" s="21" t="s">
         <v>632</v>
       </c>
       <c r="F199" s="10" t="s">
@@ -39964,13 +39964,13 @@
       <c r="B200" s="8">
         <v>44108</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="18" t="s">
         <v>394</v>
       </c>
       <c r="D200" s="9">
         <v>0.79100694444444442</v>
       </c>
-      <c r="E200" s="23" t="s">
+      <c r="E200" s="21" t="s">
         <v>633</v>
       </c>
       <c r="F200" s="10" t="s">
@@ -39999,13 +39999,13 @@
       <c r="B201" s="8">
         <v>44110</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="18" t="s">
         <v>395</v>
       </c>
       <c r="D201" s="9">
         <v>0.79107638888888887</v>
       </c>
-      <c r="E201" s="23" t="s">
+      <c r="E201" s="21" t="s">
         <v>634</v>
       </c>
       <c r="F201" s="10" t="s">
@@ -40034,13 +40034,13 @@
       <c r="B202" s="8">
         <v>44111</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="18" t="s">
         <v>396</v>
       </c>
       <c r="D202" s="9">
         <v>0.79460648148148139</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="21" t="s">
         <v>635</v>
       </c>
       <c r="F202" s="10" t="s">
@@ -40069,13 +40069,13 @@
       <c r="B203" s="8">
         <v>44113</v>
       </c>
-      <c r="C203" s="20" t="s">
+      <c r="C203" s="18" t="s">
         <v>397</v>
       </c>
       <c r="D203" s="9">
         <v>0.79493055555555558</v>
       </c>
-      <c r="E203" s="23" t="s">
+      <c r="E203" s="21" t="s">
         <v>636</v>
       </c>
       <c r="F203" s="10" t="s">
@@ -40104,13 +40104,13 @@
       <c r="B204" s="8">
         <v>44114</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="18" t="s">
         <v>398</v>
       </c>
       <c r="D204" s="9">
         <v>0.79934027777777772</v>
       </c>
-      <c r="E204" s="23" t="s">
+      <c r="E204" s="21" t="s">
         <v>637</v>
       </c>
       <c r="F204" s="10" t="s">
@@ -40139,13 +40139,13 @@
       <c r="B205" s="8">
         <v>44114</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="C205" s="18" t="s">
         <v>398</v>
       </c>
       <c r="D205" s="9">
         <v>0.79973379629629626</v>
       </c>
-      <c r="E205" s="23" t="s">
+      <c r="E205" s="21" t="s">
         <v>638</v>
       </c>
       <c r="F205" s="10" t="s">
@@ -40174,13 +40174,13 @@
       <c r="B206" s="8">
         <v>44118</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="18" t="s">
         <v>399</v>
       </c>
       <c r="D206" s="9">
         <v>0.80107638888888888</v>
       </c>
-      <c r="E206" s="23" t="s">
+      <c r="E206" s="21" t="s">
         <v>639</v>
       </c>
       <c r="F206" s="10" t="s">
@@ -40209,13 +40209,13 @@
       <c r="B207" s="8">
         <v>44118</v>
       </c>
-      <c r="C207" s="20" t="s">
+      <c r="C207" s="18" t="s">
         <v>399</v>
       </c>
       <c r="D207" s="9">
         <v>0.80140046296296286</v>
       </c>
-      <c r="E207" s="23" t="s">
+      <c r="E207" s="21" t="s">
         <v>640</v>
       </c>
       <c r="F207" s="10" t="s">
@@ -40244,13 +40244,13 @@
       <c r="B208" s="8">
         <v>44119</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="C208" s="18" t="s">
         <v>400</v>
       </c>
       <c r="D208" s="9">
         <v>0.80172453703703705</v>
       </c>
-      <c r="E208" s="23" t="s">
+      <c r="E208" s="21" t="s">
         <v>641</v>
       </c>
       <c r="F208" s="10" t="s">
@@ -40279,13 +40279,13 @@
       <c r="B209" s="8">
         <v>44119</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="18" t="s">
         <v>400</v>
       </c>
       <c r="D209" s="9">
         <v>0.80237268518518512</v>
       </c>
-      <c r="E209" s="23" t="s">
+      <c r="E209" s="21" t="s">
         <v>642</v>
       </c>
       <c r="F209" s="10" t="s">
@@ -40314,13 +40314,13 @@
       <c r="B210" s="8">
         <v>44120</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="C210" s="18" t="s">
         <v>401</v>
       </c>
       <c r="D210" s="9">
         <v>0.8028587962962962</v>
       </c>
-      <c r="E210" s="23" t="s">
+      <c r="E210" s="21" t="s">
         <v>643</v>
       </c>
       <c r="F210" s="10" t="s">
@@ -40349,13 +40349,13 @@
       <c r="B211" s="8">
         <v>44120</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="C211" s="18" t="s">
         <v>401</v>
       </c>
       <c r="D211" s="9">
         <v>0.80481481481481476</v>
       </c>
-      <c r="E211" s="23" t="s">
+      <c r="E211" s="21" t="s">
         <v>644</v>
       </c>
       <c r="F211" s="10" t="s">
@@ -40384,13 +40384,13 @@
       <c r="B212" s="8">
         <v>44120</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="C212" s="18" t="s">
         <v>401</v>
       </c>
       <c r="D212" s="9">
         <v>0.80712962962962964</v>
       </c>
-      <c r="E212" s="23" t="s">
+      <c r="E212" s="21" t="s">
         <v>645</v>
       </c>
       <c r="F212" s="10" t="s">
@@ -40419,13 +40419,13 @@
       <c r="B213" s="8">
         <v>44121</v>
       </c>
-      <c r="C213" s="20" t="s">
+      <c r="C213" s="18" t="s">
         <v>402</v>
       </c>
       <c r="D213" s="9">
         <v>0.81221064814814825</v>
       </c>
-      <c r="E213" s="23" t="s">
+      <c r="E213" s="21" t="s">
         <v>646</v>
       </c>
       <c r="F213" s="10" t="s">
@@ -40454,13 +40454,13 @@
       <c r="B214" s="8">
         <v>44122</v>
       </c>
-      <c r="C214" s="20" t="s">
+      <c r="C214" s="18" t="s">
         <v>403</v>
       </c>
       <c r="D214" s="9">
         <v>0.81372685185185178</v>
       </c>
-      <c r="E214" s="23" t="s">
+      <c r="E214" s="21" t="s">
         <v>647</v>
       </c>
       <c r="F214" s="10" t="s">
@@ -40489,13 +40489,13 @@
       <c r="B215" s="8">
         <v>44122</v>
       </c>
-      <c r="C215" s="20" t="s">
+      <c r="C215" s="18" t="s">
         <v>403</v>
       </c>
       <c r="D215" s="9">
         <v>0.81423611111111116</v>
       </c>
-      <c r="E215" s="23" t="s">
+      <c r="E215" s="21" t="s">
         <v>648</v>
       </c>
       <c r="F215" s="10" t="s">
@@ -40524,13 +40524,13 @@
       <c r="B216" s="8">
         <v>44122</v>
       </c>
-      <c r="C216" s="20" t="s">
+      <c r="C216" s="18" t="s">
         <v>403</v>
       </c>
       <c r="D216" s="9">
         <v>0.82074074074074066</v>
       </c>
-      <c r="E216" s="23" t="s">
+      <c r="E216" s="21" t="s">
         <v>649</v>
       </c>
       <c r="F216" s="10" t="s">
@@ -40559,13 +40559,13 @@
       <c r="B217" s="8">
         <v>44123</v>
       </c>
-      <c r="C217" s="20" t="s">
+      <c r="C217" s="18" t="s">
         <v>404</v>
       </c>
       <c r="D217" s="9">
         <v>0.82953703703703707</v>
       </c>
-      <c r="E217" s="23" t="s">
+      <c r="E217" s="21" t="s">
         <v>650</v>
       </c>
       <c r="F217" s="10" t="s">
@@ -40594,13 +40594,13 @@
       <c r="B218" s="8">
         <v>44125</v>
       </c>
-      <c r="C218" s="20" t="s">
+      <c r="C218" s="18" t="s">
         <v>405</v>
       </c>
       <c r="D218" s="9">
         <v>0.8348726851851852</v>
       </c>
-      <c r="E218" s="23" t="s">
+      <c r="E218" s="21" t="s">
         <v>651</v>
       </c>
       <c r="F218" s="10" t="s">
@@ -40629,13 +40629,13 @@
       <c r="B219" s="8">
         <v>44126</v>
       </c>
-      <c r="C219" s="20" t="s">
+      <c r="C219" s="18" t="s">
         <v>406</v>
       </c>
       <c r="D219" s="9">
         <v>0.83560185185185187</v>
       </c>
-      <c r="E219" s="23" t="s">
+      <c r="E219" s="21" t="s">
         <v>652</v>
       </c>
       <c r="F219" s="10" t="s">
@@ -40664,13 +40664,13 @@
       <c r="B220" s="8">
         <v>44126</v>
       </c>
-      <c r="C220" s="20" t="s">
+      <c r="C220" s="18" t="s">
         <v>406</v>
       </c>
       <c r="D220" s="9">
         <v>0.83832175925925922</v>
       </c>
-      <c r="E220" s="23" t="s">
+      <c r="E220" s="21" t="s">
         <v>653</v>
       </c>
       <c r="F220" s="10" t="s">
@@ -40699,13 +40699,13 @@
       <c r="B221" s="8">
         <v>44126</v>
       </c>
-      <c r="C221" s="20" t="s">
+      <c r="C221" s="18" t="s">
         <v>406</v>
       </c>
       <c r="D221" s="9">
         <v>0.83989583333333329</v>
       </c>
-      <c r="E221" s="23" t="s">
+      <c r="E221" s="21" t="s">
         <v>654</v>
       </c>
       <c r="F221" s="10" t="s">
@@ -40734,13 +40734,13 @@
       <c r="B222" s="8">
         <v>44126</v>
       </c>
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="18" t="s">
         <v>406</v>
       </c>
       <c r="D222" s="9">
         <v>0.84239583333333334</v>
       </c>
-      <c r="E222" s="23" t="s">
+      <c r="E222" s="21" t="s">
         <v>655</v>
       </c>
       <c r="F222" s="10" t="s">
@@ -40769,13 +40769,13 @@
       <c r="B223" s="8">
         <v>44126</v>
       </c>
-      <c r="C223" s="20" t="s">
+      <c r="C223" s="18" t="s">
         <v>406</v>
       </c>
       <c r="D223" s="9">
         <v>0.8430671296296296</v>
       </c>
-      <c r="E223" s="23" t="s">
+      <c r="E223" s="21" t="s">
         <v>656</v>
       </c>
       <c r="F223" s="10" t="s">
@@ -40804,13 +40804,13 @@
       <c r="B224" s="8">
         <v>44126</v>
       </c>
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="18" t="s">
         <v>406</v>
       </c>
       <c r="D224" s="9">
         <v>0.84327546296296296</v>
       </c>
-      <c r="E224" s="23" t="s">
+      <c r="E224" s="21" t="s">
         <v>657</v>
       </c>
       <c r="F224" s="10" t="s">
@@ -40839,13 +40839,13 @@
       <c r="B225" s="8">
         <v>44127</v>
       </c>
-      <c r="C225" s="20" t="s">
+      <c r="C225" s="18" t="s">
         <v>407</v>
       </c>
       <c r="D225" s="9">
         <v>0.84460648148148154</v>
       </c>
-      <c r="E225" s="23" t="s">
+      <c r="E225" s="21" t="s">
         <v>658</v>
       </c>
       <c r="F225" s="10" t="s">
@@ -40874,13 +40874,13 @@
       <c r="B226" s="8">
         <v>44128</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="18" t="s">
         <v>408</v>
       </c>
       <c r="D226" s="9">
         <v>0.84564814814814815</v>
       </c>
-      <c r="E226" s="23" t="s">
+      <c r="E226" s="21" t="s">
         <v>659</v>
       </c>
       <c r="F226" s="10" t="s">
@@ -40909,13 +40909,13 @@
       <c r="B227" s="8">
         <v>44129</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="C227" s="18" t="s">
         <v>409</v>
       </c>
       <c r="D227" s="9">
         <v>0.84773148148148147</v>
       </c>
-      <c r="E227" s="23" t="s">
+      <c r="E227" s="21" t="s">
         <v>660</v>
       </c>
       <c r="F227" s="10" t="s">
@@ -40944,13 +40944,13 @@
       <c r="B228" s="8">
         <v>44129</v>
       </c>
-      <c r="C228" s="20" t="s">
+      <c r="C228" s="18" t="s">
         <v>409</v>
       </c>
       <c r="D228" s="9">
         <v>0.84881944444444446</v>
       </c>
-      <c r="E228" s="23" t="s">
+      <c r="E228" s="21" t="s">
         <v>661</v>
       </c>
       <c r="F228" s="10" t="s">
@@ -40979,13 +40979,13 @@
       <c r="B229" s="8">
         <v>44130</v>
       </c>
-      <c r="C229" s="20" t="s">
+      <c r="C229" s="18" t="s">
         <v>410</v>
       </c>
       <c r="D229" s="9">
         <v>0.84956018518518517</v>
       </c>
-      <c r="E229" s="23" t="s">
+      <c r="E229" s="21" t="s">
         <v>662</v>
       </c>
       <c r="F229" s="10" t="s">
@@ -41014,13 +41014,13 @@
       <c r="B230" s="8">
         <v>44132</v>
       </c>
-      <c r="C230" s="20" t="s">
+      <c r="C230" s="18" t="s">
         <v>411</v>
       </c>
       <c r="D230" s="9">
         <v>0.85261574074074076</v>
       </c>
-      <c r="E230" s="23" t="s">
+      <c r="E230" s="21" t="s">
         <v>663</v>
       </c>
       <c r="F230" s="10" t="s">
@@ -41049,13 +41049,13 @@
       <c r="B231" s="8">
         <v>44132</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="C231" s="18" t="s">
         <v>411</v>
       </c>
       <c r="D231" s="9">
         <v>0.85354166666666664</v>
       </c>
-      <c r="E231" s="23" t="s">
+      <c r="E231" s="21" t="s">
         <v>664</v>
       </c>
       <c r="F231" s="10" t="s">
@@ -41084,13 +41084,13 @@
       <c r="B232" s="8">
         <v>44133</v>
       </c>
-      <c r="C232" s="20" t="s">
+      <c r="C232" s="18" t="s">
         <v>412</v>
       </c>
       <c r="D232" s="9">
         <v>0.85818287037037033</v>
       </c>
-      <c r="E232" s="23" t="s">
+      <c r="E232" s="21" t="s">
         <v>665</v>
       </c>
       <c r="F232" s="10" t="s">
@@ -41119,13 +41119,13 @@
       <c r="B233" s="8">
         <v>44136</v>
       </c>
-      <c r="C233" s="20" t="s">
+      <c r="C233" s="18" t="s">
         <v>413</v>
       </c>
       <c r="D233" s="9">
         <v>0.8583912037037037</v>
       </c>
-      <c r="E233" s="23" t="s">
+      <c r="E233" s="21" t="s">
         <v>666</v>
       </c>
       <c r="F233" s="10" t="s">
@@ -41154,13 +41154,13 @@
       <c r="B234" s="8">
         <v>44136</v>
       </c>
-      <c r="C234" s="20" t="s">
+      <c r="C234" s="18" t="s">
         <v>413</v>
       </c>
       <c r="D234" s="9">
         <v>0.86045138888888895</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="E234" s="21" t="s">
         <v>667</v>
       </c>
       <c r="F234" s="10" t="s">
@@ -41189,13 +41189,13 @@
       <c r="B235" s="8">
         <v>44172</v>
       </c>
-      <c r="C235" s="20" t="s">
+      <c r="C235" s="18" t="s">
         <v>414</v>
       </c>
       <c r="D235" s="9">
         <v>0.94384259259259251</v>
       </c>
-      <c r="E235" s="23" t="s">
+      <c r="E235" s="21" t="s">
         <v>668</v>
       </c>
       <c r="F235" s="10" t="s">
@@ -41224,13 +41224,13 @@
       <c r="B236" s="8">
         <v>44173</v>
       </c>
-      <c r="C236" s="20" t="s">
+      <c r="C236" s="18" t="s">
         <v>415</v>
       </c>
       <c r="D236" s="9">
         <v>0.94446759259259261</v>
       </c>
-      <c r="E236" s="23" t="s">
+      <c r="E236" s="21" t="s">
         <v>669</v>
       </c>
       <c r="F236" s="10" t="s">
@@ -41259,13 +41259,13 @@
       <c r="B237" s="8">
         <v>44173</v>
       </c>
-      <c r="C237" s="20" t="s">
+      <c r="C237" s="18" t="s">
         <v>415</v>
       </c>
       <c r="D237" s="9">
         <v>0.94491898148148146</v>
       </c>
-      <c r="E237" s="23" t="s">
+      <c r="E237" s="21" t="s">
         <v>670</v>
       </c>
       <c r="F237" s="10" t="s">
@@ -41294,13 +41294,13 @@
       <c r="B238" s="8">
         <v>44173</v>
       </c>
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="18" t="s">
         <v>415</v>
       </c>
       <c r="D238" s="9">
         <v>0.94555555555555559</v>
       </c>
-      <c r="E238" s="23" t="s">
+      <c r="E238" s="21" t="s">
         <v>671</v>
       </c>
       <c r="F238" s="10" t="s">
@@ -41329,13 +41329,13 @@
       <c r="B239" s="8">
         <v>44174</v>
       </c>
-      <c r="C239" s="20" t="s">
+      <c r="C239" s="18" t="s">
         <v>416</v>
       </c>
       <c r="D239" s="9">
         <v>0.94559027777777782</v>
       </c>
-      <c r="E239" s="23" t="s">
+      <c r="E239" s="21" t="s">
         <v>672</v>
       </c>
       <c r="F239" s="10" t="s">
@@ -41364,13 +41364,13 @@
       <c r="B240" s="8">
         <v>44174</v>
       </c>
-      <c r="C240" s="20" t="s">
+      <c r="C240" s="18" t="s">
         <v>416</v>
       </c>
       <c r="D240" s="9">
         <v>0.95160879629629624</v>
       </c>
-      <c r="E240" s="23" t="s">
+      <c r="E240" s="21" t="s">
         <v>673</v>
       </c>
       <c r="F240" s="10" t="s">
@@ -41399,13 +41399,13 @@
       <c r="B241" s="8">
         <v>44175</v>
       </c>
-      <c r="C241" s="20" t="s">
+      <c r="C241" s="18" t="s">
         <v>417</v>
       </c>
       <c r="D241" s="9">
         <v>0.95212962962962966</v>
       </c>
-      <c r="E241" s="23" t="s">
+      <c r="E241" s="21" t="s">
         <v>674</v>
       </c>
       <c r="F241" s="10" t="s">
@@ -41434,13 +41434,13 @@
       <c r="B242" s="8">
         <v>44176</v>
       </c>
-      <c r="C242" s="20" t="s">
+      <c r="C242" s="18" t="s">
         <v>418</v>
       </c>
       <c r="D242" s="9">
         <v>0.95508101851851857</v>
       </c>
-      <c r="E242" s="23" t="s">
+      <c r="E242" s="21" t="s">
         <v>675</v>
       </c>
       <c r="F242" s="10" t="s">
@@ -41469,13 +41469,13 @@
       <c r="B243" s="8">
         <v>44176</v>
       </c>
-      <c r="C243" s="20" t="s">
+      <c r="C243" s="18" t="s">
         <v>418</v>
       </c>
       <c r="D243" s="9">
         <v>0.9569212962962963</v>
       </c>
-      <c r="E243" s="23" t="s">
+      <c r="E243" s="21" t="s">
         <v>676</v>
       </c>
       <c r="F243" s="10" t="s">
@@ -41504,13 +41504,13 @@
       <c r="B244" s="8">
         <v>44176</v>
       </c>
-      <c r="C244" s="20" t="s">
+      <c r="C244" s="18" t="s">
         <v>418</v>
       </c>
       <c r="D244" s="9">
         <v>0.96521990740740737</v>
       </c>
-      <c r="E244" s="23" t="s">
+      <c r="E244" s="21" t="s">
         <v>677</v>
       </c>
       <c r="F244" s="10" t="s">
@@ -41539,13 +41539,13 @@
       <c r="B245" s="8">
         <v>44176</v>
       </c>
-      <c r="C245" s="20" t="s">
+      <c r="C245" s="18" t="s">
         <v>418</v>
       </c>
       <c r="D245" s="9">
         <v>0.96633101851851855</v>
       </c>
-      <c r="E245" s="23" t="s">
+      <c r="E245" s="21" t="s">
         <v>678</v>
       </c>
       <c r="F245" s="10" t="s">
@@ -41574,13 +41574,13 @@
       <c r="B246" s="8">
         <v>44177</v>
       </c>
-      <c r="C246" s="20" t="s">
+      <c r="C246" s="18" t="s">
         <v>419</v>
       </c>
       <c r="D246" s="9">
         <v>0.97592592592592586</v>
       </c>
-      <c r="E246" s="23" t="s">
+      <c r="E246" s="21" t="s">
         <v>679</v>
       </c>
       <c r="F246" s="10" t="s">
@@ -41609,13 +41609,13 @@
       <c r="B247" s="8">
         <v>44178</v>
       </c>
-      <c r="C247" s="20" t="s">
+      <c r="C247" s="18" t="s">
         <v>420</v>
       </c>
       <c r="D247" s="9">
         <v>0.97677083333333325</v>
       </c>
-      <c r="E247" s="23" t="s">
+      <c r="E247" s="21" t="s">
         <v>680</v>
       </c>
       <c r="F247" s="10" t="s">
@@ -41644,13 +41644,13 @@
       <c r="B248" s="8">
         <v>44179</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="18" t="s">
         <v>421</v>
       </c>
       <c r="D248" s="9">
         <v>0.97790509259259262</v>
       </c>
-      <c r="E248" s="23" t="s">
+      <c r="E248" s="21" t="s">
         <v>681</v>
       </c>
       <c r="F248" s="10" t="s">
@@ -41679,13 +41679,13 @@
       <c r="B249" s="8">
         <v>44180</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="C249" s="18" t="s">
         <v>422</v>
       </c>
       <c r="D249" s="9">
         <v>0.97886574074074073</v>
       </c>
-      <c r="E249" s="23" t="s">
+      <c r="E249" s="21" t="s">
         <v>682</v>
       </c>
       <c r="F249" s="10" t="s">
@@ -41714,13 +41714,13 @@
       <c r="B250" s="8">
         <v>44181</v>
       </c>
-      <c r="C250" s="20" t="s">
+      <c r="C250" s="18" t="s">
         <v>423</v>
       </c>
       <c r="D250" s="9">
         <v>0.97946759259259253</v>
       </c>
-      <c r="E250" s="23" t="s">
+      <c r="E250" s="21" t="s">
         <v>683</v>
       </c>
       <c r="F250" s="10" t="s">
@@ -41749,13 +41749,13 @@
       <c r="B251" s="8">
         <v>44181</v>
       </c>
-      <c r="C251" s="20" t="s">
+      <c r="C251" s="18" t="s">
         <v>423</v>
       </c>
       <c r="D251" s="9">
         <v>0.97986111111111107</v>
       </c>
-      <c r="E251" s="23" t="s">
+      <c r="E251" s="21" t="s">
         <v>684</v>
       </c>
       <c r="F251" s="10" t="s">
@@ -41784,13 +41784,13 @@
       <c r="B252" s="8">
         <v>44182</v>
       </c>
-      <c r="C252" s="20" t="s">
+      <c r="C252" s="18" t="s">
         <v>424</v>
       </c>
       <c r="D252" s="9">
         <v>0.98004629629629625</v>
       </c>
-      <c r="E252" s="23" t="s">
+      <c r="E252" s="21" t="s">
         <v>685</v>
       </c>
       <c r="F252" s="10" t="s">
@@ -41819,13 +41819,13 @@
       <c r="B253" s="8">
         <v>44182</v>
       </c>
-      <c r="C253" s="20" t="s">
+      <c r="C253" s="18" t="s">
         <v>424</v>
       </c>
       <c r="D253" s="9">
         <v>0.98234953703703709</v>
       </c>
-      <c r="E253" s="23" t="s">
+      <c r="E253" s="21" t="s">
         <v>686</v>
       </c>
       <c r="F253" s="10" t="s">
@@ -41854,13 +41854,13 @@
       <c r="B254" s="8">
         <v>44183</v>
       </c>
-      <c r="C254" s="20" t="s">
+      <c r="C254" s="18" t="s">
         <v>425</v>
       </c>
       <c r="D254" s="9">
         <v>0.98261574074074076</v>
       </c>
-      <c r="E254" s="23" t="s">
+      <c r="E254" s="21" t="s">
         <v>687</v>
       </c>
       <c r="F254" s="10" t="s">
@@ -41889,13 +41889,13 @@
       <c r="B255" s="8">
         <v>44184</v>
       </c>
-      <c r="C255" s="20" t="s">
+      <c r="C255" s="18" t="s">
         <v>426</v>
       </c>
       <c r="D255" s="9">
         <v>0.98359953703703706</v>
       </c>
-      <c r="E255" s="23" t="s">
+      <c r="E255" s="21" t="s">
         <v>688</v>
       </c>
       <c r="F255" s="10" t="s">
@@ -41924,13 +41924,13 @@
       <c r="B256" s="8">
         <v>44186</v>
       </c>
-      <c r="C256" s="20" t="s">
+      <c r="C256" s="18" t="s">
         <v>427</v>
       </c>
       <c r="D256" s="9">
         <v>0.98564814814814816</v>
       </c>
-      <c r="E256" s="23" t="s">
+      <c r="E256" s="21" t="s">
         <v>689</v>
       </c>
       <c r="F256" s="10" t="s">
@@ -41959,13 +41959,13 @@
       <c r="B257" s="8">
         <v>44186</v>
       </c>
-      <c r="C257" s="20" t="s">
+      <c r="C257" s="18" t="s">
         <v>427</v>
       </c>
       <c r="D257" s="9">
         <v>0.9878703703703704</v>
       </c>
-      <c r="E257" s="23" t="s">
+      <c r="E257" s="21" t="s">
         <v>690</v>
       </c>
       <c r="F257" s="10" t="s">
@@ -41994,13 +41994,13 @@
       <c r="B258" s="8">
         <v>44187</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="C258" s="18" t="s">
         <v>428</v>
       </c>
       <c r="D258" s="9">
         <v>0.98917824074074068</v>
       </c>
-      <c r="E258" s="23" t="s">
+      <c r="E258" s="21" t="s">
         <v>691</v>
       </c>
       <c r="F258" s="10" t="s">
@@ -42029,13 +42029,13 @@
       <c r="B259" s="8">
         <v>44187</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C259" s="18" t="s">
         <v>428</v>
       </c>
       <c r="D259" s="9">
         <v>0.9894560185185185</v>
       </c>
-      <c r="E259" s="23" t="s">
+      <c r="E259" s="21" t="s">
         <v>692</v>
       </c>
       <c r="F259" s="10" t="s">
@@ -42064,13 +42064,13 @@
       <c r="B260" s="8">
         <v>44188</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="18" t="s">
         <v>429</v>
       </c>
       <c r="D260" s="9">
         <v>0.99153935185185194</v>
       </c>
-      <c r="E260" s="23" t="s">
+      <c r="E260" s="21" t="s">
         <v>693</v>
       </c>
       <c r="F260" s="10" t="s">
@@ -42099,13 +42099,13 @@
       <c r="B261" s="8">
         <v>44189</v>
       </c>
-      <c r="C261" s="20" t="s">
+      <c r="C261" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D261" s="9">
         <v>0.99410879629629623</v>
       </c>
-      <c r="E261" s="23" t="s">
+      <c r="E261" s="21" t="s">
         <v>694</v>
       </c>
       <c r="F261" s="10" t="s">
@@ -42134,13 +42134,13 @@
       <c r="B262" s="8">
         <v>44189</v>
       </c>
-      <c r="C262" s="20" t="s">
+      <c r="C262" s="18" t="s">
         <v>430</v>
       </c>
       <c r="D262" s="9">
         <v>0.99690972222222218</v>
       </c>
-      <c r="E262" s="23" t="s">
+      <c r="E262" s="21" t="s">
         <v>695</v>
       </c>
       <c r="F262" s="10" t="s">
@@ -42169,13 +42169,13 @@
       <c r="B263" s="8">
         <v>44190</v>
       </c>
-      <c r="C263" s="20" t="s">
+      <c r="C263" s="18" t="s">
         <v>431</v>
       </c>
       <c r="D263" s="9">
         <v>0.99854166666666666</v>
       </c>
-      <c r="E263" s="23" t="s">
+      <c r="E263" s="21" t="s">
         <v>696</v>
       </c>
       <c r="F263" s="10" t="s">
@@ -42204,13 +42204,13 @@
       <c r="B264" s="8">
         <v>44191</v>
       </c>
-      <c r="C264" s="20" t="s">
+      <c r="C264" s="18" t="s">
         <v>432</v>
       </c>
       <c r="D264" s="9">
         <v>0.99869212962962972</v>
       </c>
-      <c r="E264" s="23" t="s">
+      <c r="E264" s="21" t="s">
         <v>697</v>
       </c>
       <c r="F264" s="10" t="s">
@@ -42239,13 +42239,13 @@
       <c r="B265" s="8">
         <v>44193</v>
       </c>
-      <c r="C265" s="20" t="s">
+      <c r="C265" s="18" t="s">
         <v>433</v>
       </c>
       <c r="D265" s="9">
         <v>0.99967592592592591</v>
       </c>
-      <c r="E265" s="23" t="s">
+      <c r="E265" s="21" t="s">
         <v>698</v>
       </c>
       <c r="F265" s="10" t="s">
@@ -42274,13 +42274,13 @@
       <c r="B266" s="8">
         <v>44194</v>
       </c>
-      <c r="C266" s="20" t="s">
+      <c r="C266" s="18" t="s">
         <v>434</v>
       </c>
       <c r="D266" s="9">
         <v>0.9996990740740741</v>
       </c>
-      <c r="E266" s="23" t="s">
+      <c r="E266" s="21" t="s">
         <v>699</v>
       </c>
       <c r="F266" s="10" t="s">
@@ -42323,9 +42323,9 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="17" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.875" customWidth="1"/>
@@ -42338,13 +42338,13 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>290</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>935</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -42373,13 +42373,13 @@
       <c r="B2" s="8">
         <v>43833</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D2" s="9">
         <v>2.4189814814814816E-3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>700</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -42408,13 +42408,13 @@
       <c r="B3" s="8">
         <v>43833</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D3" s="9">
         <v>5.7175925925925927E-3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>701</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -42443,13 +42443,13 @@
       <c r="B4" s="8">
         <v>43833</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D4" s="9">
         <v>9.4560185185185181E-3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>702</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -42478,13 +42478,13 @@
       <c r="B5" s="8">
         <v>43835</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>163</v>
       </c>
       <c r="D5" s="9">
         <v>1.7928240740740741E-2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>703</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -42513,13 +42513,13 @@
       <c r="B6" s="8">
         <v>43836</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D6" s="9">
         <v>1.8958333333333334E-2</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>704</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -42548,13 +42548,13 @@
       <c r="B7" s="8">
         <v>43836</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D7" s="9">
         <v>2.0578703703703703E-2</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>705</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -42583,13 +42583,13 @@
       <c r="B8" s="8">
         <v>43854</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="9">
         <v>8.0983796296296304E-2</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>706</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -42618,13 +42618,13 @@
       <c r="B9" s="8">
         <v>43855</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>166</v>
       </c>
       <c r="D9" s="9">
         <v>8.1261574074074069E-2</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>707</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -42653,13 +42653,13 @@
       <c r="B10" s="8">
         <v>43855</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>166</v>
       </c>
       <c r="D10" s="9">
         <v>8.1354166666666672E-2</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>708</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -42688,13 +42688,13 @@
       <c r="B11" s="8">
         <v>43856</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="9">
         <v>8.1874999999999989E-2</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>709</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -42723,13 +42723,13 @@
       <c r="B12" s="8">
         <v>43856</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="9">
         <v>8.2488425925925923E-2</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>710</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -42758,13 +42758,13 @@
       <c r="B13" s="8">
         <v>43856</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="9">
         <v>8.4629629629629624E-2</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="21" t="s">
         <v>711</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -42793,13 +42793,13 @@
       <c r="B14" s="8">
         <v>43856</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="9">
         <v>8.7187499999999987E-2</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>712</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -42828,13 +42828,13 @@
       <c r="B15" s="8">
         <v>43856</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="9">
         <v>8.9131944444444444E-2</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>713</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -42863,13 +42863,13 @@
       <c r="B16" s="8">
         <v>43857</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>168</v>
       </c>
       <c r="D16" s="9">
         <v>8.971064814814815E-2</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>714</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -42898,13 +42898,13 @@
       <c r="B17" s="8">
         <v>43858</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>169</v>
       </c>
       <c r="D17" s="9">
         <v>9.3854166666666669E-2</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>715</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -42933,13 +42933,13 @@
       <c r="B18" s="8">
         <v>43859</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D18" s="9">
         <v>9.4756944444444449E-2</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>716</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -42968,13 +42968,13 @@
       <c r="B19" s="8">
         <v>43864</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="9">
         <v>0.10165509259259259</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="21" t="s">
         <v>717</v>
       </c>
       <c r="F19" s="10" t="s">
@@ -43003,13 +43003,13 @@
       <c r="B20" s="8">
         <v>43865</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="9">
         <v>0.10422453703703705</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>718</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -43038,13 +43038,13 @@
       <c r="B21" s="8">
         <v>43865</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D21" s="9">
         <v>0.10581018518518519</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="21" t="s">
         <v>719</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -43073,13 +43073,13 @@
       <c r="B22" s="8">
         <v>43867</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>173</v>
       </c>
       <c r="D22" s="9">
         <v>0.10660879629629628</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>720</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -43108,13 +43108,13 @@
       <c r="B23" s="8">
         <v>43867</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>173</v>
       </c>
       <c r="D23" s="9">
         <v>0.10724537037037037</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>721</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -43143,13 +43143,13 @@
       <c r="B24" s="8">
         <v>43868</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>174</v>
       </c>
       <c r="D24" s="9">
         <v>0.11112268518518519</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>722</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -43178,13 +43178,13 @@
       <c r="B25" s="8">
         <v>43869</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="9">
         <v>0.11363425925925925</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>723</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -43213,13 +43213,13 @@
       <c r="B26" s="8">
         <v>43871</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>176</v>
       </c>
       <c r="D26" s="9">
         <v>0.11721064814814815</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>724</v>
       </c>
       <c r="F26" s="10" t="s">
@@ -43248,13 +43248,13 @@
       <c r="B27" s="8">
         <v>43872</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="9">
         <v>0.12052083333333334</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="21" t="s">
         <v>725</v>
       </c>
       <c r="F27" s="10" t="s">
@@ -43283,13 +43283,13 @@
       <c r="B28" s="8">
         <v>43872</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>177</v>
       </c>
       <c r="D28" s="9">
         <v>0.12254629629629631</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="21" t="s">
         <v>726</v>
       </c>
       <c r="F28" s="10" t="s">
@@ -43318,13 +43318,13 @@
       <c r="B29" s="8">
         <v>43873</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>178</v>
       </c>
       <c r="D29" s="9">
         <v>0.12355324074074074</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="21" t="s">
         <v>727</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -43353,13 +43353,13 @@
       <c r="B30" s="8">
         <v>43873</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>178</v>
       </c>
       <c r="D30" s="9">
         <v>0.1238425925925926</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>728</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -43388,13 +43388,13 @@
       <c r="B31" s="8">
         <v>43874</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>179</v>
       </c>
       <c r="D31" s="9">
         <v>0.12533564814814815</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="21" t="s">
         <v>729</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -43423,13 +43423,13 @@
       <c r="B32" s="8">
         <v>43882</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="9">
         <v>0.14128472222222221</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="21" t="s">
         <v>730</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -43458,13 +43458,13 @@
       <c r="B33" s="8">
         <v>43882</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>180</v>
       </c>
       <c r="D33" s="9">
         <v>0.15293981481481481</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>731</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -43493,13 +43493,13 @@
       <c r="B34" s="8">
         <v>43883</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D34" s="9">
         <v>0.1532523148148148</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="21" t="s">
         <v>732</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -43528,13 +43528,13 @@
       <c r="B35" s="8">
         <v>43883</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D35" s="9">
         <v>0.15449074074074073</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="21" t="s">
         <v>733</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -43563,13 +43563,13 @@
       <c r="B36" s="8">
         <v>43883</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D36" s="9">
         <v>0.15534722222222222</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="21" t="s">
         <v>734</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -43598,13 +43598,13 @@
       <c r="B37" s="8">
         <v>43883</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D37" s="9">
         <v>0.15679398148148146</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="21" t="s">
         <v>735</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -43633,13 +43633,13 @@
       <c r="B38" s="8">
         <v>43884</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D38" s="9">
         <v>0.15887731481481482</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="21" t="s">
         <v>736</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -43668,13 +43668,13 @@
       <c r="B39" s="8">
         <v>43885</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>183</v>
       </c>
       <c r="D39" s="9">
         <v>0.16010416666666666</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="21" t="s">
         <v>737</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -43703,13 +43703,13 @@
       <c r="B40" s="8">
         <v>43885</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>183</v>
       </c>
       <c r="D40" s="9">
         <v>0.16473379629629628</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="21" t="s">
         <v>738</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -43738,13 +43738,13 @@
       <c r="B41" s="8">
         <v>43886</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D41" s="9">
         <v>0.16568287037037036</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="21" t="s">
         <v>739</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -43773,13 +43773,13 @@
       <c r="B42" s="8">
         <v>43887</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>185</v>
       </c>
       <c r="D42" s="9">
         <v>0.16601851851851854</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="21" t="s">
         <v>740</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -43808,13 +43808,13 @@
       <c r="B43" s="8">
         <v>43887</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>185</v>
       </c>
       <c r="D43" s="9">
         <v>0.17244212962962965</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="21" t="s">
         <v>741</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -43843,13 +43843,13 @@
       <c r="B44" s="8">
         <v>43892</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D44" s="9">
         <v>0.17622685185185186</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="21" t="s">
         <v>742</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -43878,13 +43878,13 @@
       <c r="B45" s="8">
         <v>43893</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>187</v>
       </c>
       <c r="D45" s="9">
         <v>0.17633101851851851</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="21" t="s">
         <v>743</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -43913,13 +43913,13 @@
       <c r="B46" s="8">
         <v>43895</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D46" s="9">
         <v>0.18069444444444446</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="21" t="s">
         <v>744</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -43948,13 +43948,13 @@
       <c r="B47" s="8">
         <v>43896</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D47" s="9">
         <v>0.18121527777777779</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="21" t="s">
         <v>745</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -43983,13 +43983,13 @@
       <c r="B48" s="8">
         <v>43896</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D48" s="9">
         <v>0.18418981481481481</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="21" t="s">
         <v>746</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -44018,13 +44018,13 @@
       <c r="B49" s="8">
         <v>43897</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D49" s="9">
         <v>0.18450231481481483</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="21" t="s">
         <v>747</v>
       </c>
       <c r="F49" s="10" t="s">
@@ -44053,13 +44053,13 @@
       <c r="B50" s="8">
         <v>43897</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D50" s="9">
         <v>0.19787037037037036</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="21" t="s">
         <v>748</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -44088,13 +44088,13 @@
       <c r="B51" s="8">
         <v>43897</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D51" s="9">
         <v>0.20252314814814812</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="21" t="s">
         <v>749</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -44123,13 +44123,13 @@
       <c r="B52" s="8">
         <v>43897</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D52" s="9">
         <v>0.20586805555555557</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="21" t="s">
         <v>750</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -44158,13 +44158,13 @@
       <c r="B53" s="8">
         <v>43897</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="9">
         <v>0.20937500000000001</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="21" t="s">
         <v>751</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -44193,13 +44193,13 @@
       <c r="B54" s="8">
         <v>43898</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D54" s="9">
         <v>0.21079861111111112</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="21" t="s">
         <v>752</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -44228,13 +44228,13 @@
       <c r="B55" s="8">
         <v>43898</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D55" s="9">
         <v>0.2116550925925926</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="21" t="s">
         <v>753</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -44263,13 +44263,13 @@
       <c r="B56" s="8">
         <v>43927</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>192</v>
       </c>
       <c r="D56" s="9">
         <v>0.28542824074074075</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="21" t="s">
         <v>754</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -44298,13 +44298,13 @@
       <c r="B57" s="8">
         <v>43929</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D57" s="9">
         <v>0.28614583333333332</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="21" t="s">
         <v>755</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -44333,13 +44333,13 @@
       <c r="B58" s="8">
         <v>43929</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>193</v>
       </c>
       <c r="D58" s="9">
         <v>0.28723379629629631</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="21" t="s">
         <v>756</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -44368,13 +44368,13 @@
       <c r="B59" s="8">
         <v>43930</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>194</v>
       </c>
       <c r="D59" s="9">
         <v>0.29190972222222222</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="21" t="s">
         <v>757</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -44403,13 +44403,13 @@
       <c r="B60" s="8">
         <v>43932</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>195</v>
       </c>
       <c r="D60" s="9">
         <v>0.29358796296296297</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="21" t="s">
         <v>758</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -44438,13 +44438,13 @@
       <c r="B61" s="8">
         <v>43933</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D61" s="9">
         <v>0.29431712962962964</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="21" t="s">
         <v>759</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -44473,13 +44473,13 @@
       <c r="B62" s="8">
         <v>43933</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D62" s="9">
         <v>0.29527777777777781</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="21" t="s">
         <v>760</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -44508,13 +44508,13 @@
       <c r="B63" s="8">
         <v>43933</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D63" s="9">
         <v>0.29934027777777777</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="21" t="s">
         <v>761</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -44543,13 +44543,13 @@
       <c r="B64" s="8">
         <v>43934</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D64" s="9">
         <v>0.30189814814814814</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="21" t="s">
         <v>762</v>
       </c>
       <c r="F64" s="10" t="s">
@@ -44578,13 +44578,13 @@
       <c r="B65" s="8">
         <v>43934</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>197</v>
       </c>
       <c r="D65" s="9">
         <v>0.31109953703703702</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="21" t="s">
         <v>763</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -44613,13 +44613,13 @@
       <c r="B66" s="8">
         <v>43936</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>198</v>
       </c>
       <c r="D66" s="9">
         <v>0.31203703703703706</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="21" t="s">
         <v>764</v>
       </c>
       <c r="F66" s="10" t="s">
@@ -44648,13 +44648,13 @@
       <c r="B67" s="8">
         <v>43938</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="16" t="s">
         <v>199</v>
       </c>
       <c r="D67" s="9">
         <v>0.31487268518518519</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="21" t="s">
         <v>765</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -44683,13 +44683,13 @@
       <c r="B68" s="8">
         <v>43938</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>199</v>
       </c>
       <c r="D68" s="9">
         <v>0.31633101851851853</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="21" t="s">
         <v>766</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -44718,13 +44718,13 @@
       <c r="B69" s="8">
         <v>43939</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D69" s="9">
         <v>0.31730324074074073</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="21" t="s">
         <v>767</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -44753,13 +44753,13 @@
       <c r="B70" s="8">
         <v>43939</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>200</v>
       </c>
       <c r="D70" s="9">
         <v>0.31916666666666665</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="21" t="s">
         <v>768</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -44788,13 +44788,13 @@
       <c r="B71" s="8">
         <v>43940</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>201</v>
       </c>
       <c r="D71" s="9">
         <v>0.32442129629629629</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="21" t="s">
         <v>769</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -44823,13 +44823,13 @@
       <c r="B72" s="8">
         <v>43942</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>202</v>
       </c>
       <c r="D72" s="9">
         <v>0.3258449074074074</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="21" t="s">
         <v>770</v>
       </c>
       <c r="F72" s="10" t="s">
@@ -44858,13 +44858,13 @@
       <c r="B73" s="8">
         <v>43942</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="16" t="s">
         <v>202</v>
       </c>
       <c r="D73" s="9">
         <v>0.32973379629629629</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="21" t="s">
         <v>771</v>
       </c>
       <c r="F73" s="10" t="s">
@@ -44893,13 +44893,13 @@
       <c r="B74" s="8">
         <v>43943</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="16" t="s">
         <v>203</v>
       </c>
       <c r="D74" s="9">
         <v>0.33002314814814815</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="21" t="s">
         <v>772</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -44928,13 +44928,13 @@
       <c r="B75" s="8">
         <v>43944</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="16" t="s">
         <v>204</v>
       </c>
       <c r="D75" s="9">
         <v>0.33152777777777781</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="21" t="s">
         <v>773</v>
       </c>
       <c r="F75" s="10" t="s">
@@ -44963,13 +44963,13 @@
       <c r="B76" s="8">
         <v>43946</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>205</v>
       </c>
       <c r="D76" s="9">
         <v>0.33164351851851853</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="21" t="s">
         <v>774</v>
       </c>
       <c r="F76" s="10" t="s">
@@ -44998,13 +44998,13 @@
       <c r="B77" s="8">
         <v>43947</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D77" s="9">
         <v>0.33379629629629631</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="21" t="s">
         <v>775</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -45033,13 +45033,13 @@
       <c r="B78" s="8">
         <v>43947</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>206</v>
       </c>
       <c r="D78" s="9">
         <v>0.33428240740740739</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="21" t="s">
         <v>776</v>
       </c>
       <c r="F78" s="10" t="s">
@@ -45068,13 +45068,13 @@
       <c r="B79" s="8">
         <v>43949</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D79" s="9">
         <v>0.33476851851851852</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="21" t="s">
         <v>777</v>
       </c>
       <c r="F79" s="10" t="s">
@@ -45103,13 +45103,13 @@
       <c r="B80" s="8">
         <v>43949</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D80" s="9">
         <v>0.33620370370370373</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="21" t="s">
         <v>778</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -45138,13 +45138,13 @@
       <c r="B81" s="8">
         <v>43949</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="16" t="s">
         <v>207</v>
       </c>
       <c r="D81" s="9">
         <v>0.33671296296296299</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="21" t="s">
         <v>779</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -45173,13 +45173,13 @@
       <c r="B82" s="8">
         <v>43972</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="16" t="s">
         <v>208</v>
       </c>
       <c r="D82" s="9">
         <v>0.39321759259259265</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="21" t="s">
         <v>780</v>
       </c>
       <c r="F82" s="10" t="s">
@@ -45208,13 +45208,13 @@
       <c r="B83" s="8">
         <v>43973</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="16" t="s">
         <v>209</v>
       </c>
       <c r="D83" s="9">
         <v>0.39378472222222222</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="21" t="s">
         <v>781</v>
       </c>
       <c r="F83" s="10" t="s">
@@ -45243,13 +45243,13 @@
       <c r="B84" s="8">
         <v>43973</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>209</v>
       </c>
       <c r="D84" s="9">
         <v>0.40064814814814814</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="21" t="s">
         <v>782</v>
       </c>
       <c r="F84" s="10" t="s">
@@ -45278,13 +45278,13 @@
       <c r="B85" s="8">
         <v>43973</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="16" t="s">
         <v>209</v>
       </c>
       <c r="D85" s="9">
         <v>0.40234953703703707</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="21" t="s">
         <v>783</v>
       </c>
       <c r="F85" s="10" t="s">
@@ -45313,13 +45313,13 @@
       <c r="B86" s="8">
         <v>43973</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="16" t="s">
         <v>209</v>
       </c>
       <c r="D86" s="9">
         <v>0.40756944444444443</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="21" t="s">
         <v>784</v>
       </c>
       <c r="F86" s="10" t="s">
@@ -45348,13 +45348,13 @@
       <c r="B87" s="8">
         <v>43974</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D87" s="9">
         <v>0.40787037037037038</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="21" t="s">
         <v>785</v>
       </c>
       <c r="F87" s="10" t="s">
@@ -45383,13 +45383,13 @@
       <c r="B88" s="8">
         <v>43975</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D88" s="9">
         <v>0.40983796296296293</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="21" t="s">
         <v>786</v>
       </c>
       <c r="F88" s="10" t="s">
@@ -45418,13 +45418,13 @@
       <c r="B89" s="8">
         <v>43975</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D89" s="9">
         <v>0.4104976851851852</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="21" t="s">
         <v>787</v>
       </c>
       <c r="F89" s="10" t="s">
@@ -45453,13 +45453,13 @@
       <c r="B90" s="8">
         <v>43975</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="16" t="s">
         <v>211</v>
       </c>
       <c r="D90" s="9">
         <v>0.41144675925925928</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="21" t="s">
         <v>788</v>
       </c>
       <c r="F90" s="10" t="s">
@@ -45488,13 +45488,13 @@
       <c r="B91" s="8">
         <v>43976</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="16" t="s">
         <v>212</v>
       </c>
       <c r="D91" s="9">
         <v>0.41163194444444445</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="21" t="s">
         <v>789</v>
       </c>
       <c r="F91" s="10" t="s">
@@ -45523,13 +45523,13 @@
       <c r="B92" s="8">
         <v>43976</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="16" t="s">
         <v>212</v>
       </c>
       <c r="D92" s="9">
         <v>0.41298611111111111</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="21" t="s">
         <v>790</v>
       </c>
       <c r="F92" s="10" t="s">
@@ -45558,13 +45558,13 @@
       <c r="B93" s="8">
         <v>43977</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="16" t="s">
         <v>213</v>
       </c>
       <c r="D93" s="9">
         <v>0.41452546296296294</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="21" t="s">
         <v>791</v>
       </c>
       <c r="F93" s="10" t="s">
@@ -45593,13 +45593,13 @@
       <c r="B94" s="8">
         <v>43977</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="16" t="s">
         <v>213</v>
       </c>
       <c r="D94" s="9">
         <v>0.41537037037037039</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="21" t="s">
         <v>792</v>
       </c>
       <c r="F94" s="10" t="s">
@@ -45628,13 +45628,13 @@
       <c r="B95" s="8">
         <v>43980</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D95" s="9">
         <v>0.41966435185185186</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="21" t="s">
         <v>793</v>
       </c>
       <c r="F95" s="10" t="s">
@@ -45663,13 +45663,13 @@
       <c r="B96" s="8">
         <v>43980</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D96" s="9">
         <v>0.42047453703703702</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="21" t="s">
         <v>794</v>
       </c>
       <c r="F96" s="10" t="s">
@@ -45698,13 +45698,13 @@
       <c r="B97" s="8">
         <v>43980</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="16" t="s">
         <v>214</v>
       </c>
       <c r="D97" s="9">
         <v>0.42238425925925926</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="21" t="s">
         <v>795</v>
       </c>
       <c r="F97" s="10" t="s">
@@ -45733,13 +45733,13 @@
       <c r="B98" s="8">
         <v>43983</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>215</v>
       </c>
       <c r="D98" s="9">
         <v>0.42425925925925928</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="21" t="s">
         <v>796</v>
       </c>
       <c r="F98" s="10" t="s">
@@ -45768,13 +45768,13 @@
       <c r="B99" s="8">
         <v>43984</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D99" s="9">
         <v>0.42668981481481483</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="21" t="s">
         <v>797</v>
       </c>
       <c r="F99" s="10" t="s">
@@ -45803,13 +45803,13 @@
       <c r="B100" s="8">
         <v>43984</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D100" s="9">
         <v>0.42829861111111112</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="21" t="s">
         <v>798</v>
       </c>
       <c r="F100" s="10" t="s">
@@ -45838,13 +45838,13 @@
       <c r="B101" s="8">
         <v>43985</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="16" t="s">
         <v>217</v>
       </c>
       <c r="D101" s="9">
         <v>0.43047453703703703</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="21" t="s">
         <v>799</v>
       </c>
       <c r="F101" s="10" t="s">
@@ -45873,13 +45873,13 @@
       <c r="B102" s="8">
         <v>43986</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="16" t="s">
         <v>218</v>
       </c>
       <c r="D102" s="9">
         <v>0.43093749999999997</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="21" t="s">
         <v>800</v>
       </c>
       <c r="F102" s="10" t="s">
@@ -45908,13 +45908,13 @@
       <c r="B103" s="8">
         <v>43986</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="16" t="s">
         <v>218</v>
       </c>
       <c r="D103" s="9">
         <v>0.43096064814814811</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="21" t="s">
         <v>801</v>
       </c>
       <c r="F103" s="10" t="s">
@@ -45943,13 +45943,13 @@
       <c r="B104" s="8">
         <v>43987</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>219</v>
       </c>
       <c r="D104" s="9">
         <v>0.43230324074074072</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="21" t="s">
         <v>802</v>
       </c>
       <c r="F104" s="10" t="s">
@@ -45978,13 +45978,13 @@
       <c r="B105" s="8">
         <v>43988</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="16" t="s">
         <v>220</v>
       </c>
       <c r="D105" s="9">
         <v>0.43476851851851855</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="21" t="s">
         <v>803</v>
       </c>
       <c r="F105" s="10" t="s">
@@ -46013,13 +46013,13 @@
       <c r="B106" s="8">
         <v>43989</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="16" t="s">
         <v>221</v>
       </c>
       <c r="D106" s="9">
         <v>0.4365856481481481</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="21" t="s">
         <v>804</v>
       </c>
       <c r="F106" s="10" t="s">
@@ -46048,13 +46048,13 @@
       <c r="B107" s="8">
         <v>43989</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="16" t="s">
         <v>221</v>
       </c>
       <c r="D107" s="9">
         <v>0.43700231481481483</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="21" t="s">
         <v>805</v>
       </c>
       <c r="F107" s="10" t="s">
@@ -46083,13 +46083,13 @@
       <c r="B108" s="8">
         <v>43990</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="16" t="s">
         <v>222</v>
       </c>
       <c r="D108" s="9">
         <v>0.44443287037037038</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="21" t="s">
         <v>806</v>
       </c>
       <c r="F108" s="10" t="s">
@@ -46118,13 +46118,13 @@
       <c r="B109" s="8">
         <v>43990</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="16" t="s">
         <v>222</v>
       </c>
       <c r="D109" s="9">
         <v>0.44637731481481485</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="21" t="s">
         <v>807</v>
       </c>
       <c r="F109" s="10" t="s">
@@ -46153,13 +46153,13 @@
       <c r="B110" s="8">
         <v>43990</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="16" t="s">
         <v>222</v>
       </c>
       <c r="D110" s="9">
         <v>0.44694444444444442</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="21" t="s">
         <v>808</v>
       </c>
       <c r="F110" s="10" t="s">
@@ -46188,13 +46188,13 @@
       <c r="B111" s="8">
         <v>43992</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="16" t="s">
         <v>223</v>
       </c>
       <c r="D111" s="9">
         <v>0.44806712962962963</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="21" t="s">
         <v>809</v>
       </c>
       <c r="F111" s="10" t="s">
@@ -46223,13 +46223,13 @@
       <c r="B112" s="8">
         <v>43992</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="16" t="s">
         <v>223</v>
       </c>
       <c r="D112" s="9">
         <v>0.44909722222222226</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="21" t="s">
         <v>810</v>
       </c>
       <c r="F112" s="10" t="s">
@@ -46258,13 +46258,13 @@
       <c r="B113" s="8">
         <v>43993</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="16" t="s">
         <v>224</v>
       </c>
       <c r="D113" s="9">
         <v>0.44949074074074075</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="21" t="s">
         <v>811</v>
       </c>
       <c r="F113" s="10" t="s">
@@ -46293,13 +46293,13 @@
       <c r="B114" s="8">
         <v>43994</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="16" t="s">
         <v>225</v>
       </c>
       <c r="D114" s="9">
         <v>0.45461805555555551</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E114" s="21" t="s">
         <v>812</v>
       </c>
       <c r="F114" s="10" t="s">
@@ -46328,13 +46328,13 @@
       <c r="B115" s="8">
         <v>43996</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="16" t="s">
         <v>226</v>
       </c>
       <c r="D115" s="9">
         <v>0.45599537037037036</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E115" s="21" t="s">
         <v>813</v>
       </c>
       <c r="F115" s="10" t="s">
@@ -46363,13 +46363,13 @@
       <c r="B116" s="8">
         <v>43996</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="16" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="9">
         <v>0.45650462962962962</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="21" t="s">
         <v>814</v>
       </c>
       <c r="F116" s="10" t="s">
@@ -46398,13 +46398,13 @@
       <c r="B117" s="8">
         <v>43996</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="16" t="s">
         <v>226</v>
       </c>
       <c r="D117" s="9">
         <v>0.45725694444444448</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="21" t="s">
         <v>815</v>
       </c>
       <c r="F117" s="10" t="s">
@@ -46433,13 +46433,13 @@
       <c r="B118" s="8">
         <v>43997</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D118" s="9">
         <v>0.45747685185185188</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E118" s="21" t="s">
         <v>816</v>
       </c>
       <c r="F118" s="10" t="s">
@@ -46468,13 +46468,13 @@
       <c r="B119" s="8">
         <v>43997</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D119" s="9">
         <v>0.46054398148148151</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="E119" s="21" t="s">
         <v>817</v>
       </c>
       <c r="F119" s="10" t="s">
@@ -46503,13 +46503,13 @@
       <c r="B120" s="8">
         <v>43998</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="16" t="s">
         <v>228</v>
       </c>
       <c r="D120" s="9">
         <v>0.46341435185185187</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="21" t="s">
         <v>818</v>
       </c>
       <c r="F120" s="10" t="s">
@@ -46538,13 +46538,13 @@
       <c r="B121" s="8">
         <v>43998</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="16" t="s">
         <v>228</v>
       </c>
       <c r="D121" s="9">
         <v>0.46386574074074072</v>
       </c>
-      <c r="E121" s="23" t="s">
+      <c r="E121" s="21" t="s">
         <v>819</v>
       </c>
       <c r="F121" s="10" t="s">
@@ -46573,13 +46573,13 @@
       <c r="B122" s="8">
         <v>44000</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="16" t="s">
         <v>229</v>
       </c>
       <c r="D122" s="9">
         <v>0.46431712962962962</v>
       </c>
-      <c r="E122" s="23" t="s">
+      <c r="E122" s="21" t="s">
         <v>820</v>
       </c>
       <c r="F122" s="10" t="s">
@@ -46608,13 +46608,13 @@
       <c r="B123" s="8">
         <v>44001</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D123" s="9">
         <v>0.46724537037037034</v>
       </c>
-      <c r="E123" s="23" t="s">
+      <c r="E123" s="21" t="s">
         <v>821</v>
       </c>
       <c r="F123" s="10" t="s">
@@ -46643,13 +46643,13 @@
       <c r="B124" s="8">
         <v>44021</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="16" t="s">
         <v>231</v>
       </c>
       <c r="D124" s="9">
         <v>0.5095601851851852</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="21" t="s">
         <v>822</v>
       </c>
       <c r="F124" s="10" t="s">
@@ -46678,13 +46678,13 @@
       <c r="B125" s="8">
         <v>44022</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="16" t="s">
         <v>232</v>
       </c>
       <c r="D125" s="9">
         <v>0.51118055555555553</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="21" t="s">
         <v>823</v>
       </c>
       <c r="F125" s="10" t="s">
@@ -46713,13 +46713,13 @@
       <c r="B126" s="8">
         <v>44022</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="16" t="s">
         <v>232</v>
       </c>
       <c r="D126" s="9">
         <v>0.51218750000000002</v>
       </c>
-      <c r="E126" s="23" t="s">
+      <c r="E126" s="21" t="s">
         <v>824</v>
       </c>
       <c r="F126" s="10" t="s">
@@ -46748,13 +46748,13 @@
       <c r="B127" s="8">
         <v>44024</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="16" t="s">
         <v>233</v>
       </c>
       <c r="D127" s="9">
         <v>0.51629629629629636</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="21" t="s">
         <v>825</v>
       </c>
       <c r="F127" s="10" t="s">
@@ -46783,13 +46783,13 @@
       <c r="B128" s="8">
         <v>44025</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="16" t="s">
         <v>234</v>
       </c>
       <c r="D128" s="9">
         <v>0.51959490740740744</v>
       </c>
-      <c r="E128" s="23" t="s">
+      <c r="E128" s="21" t="s">
         <v>826</v>
       </c>
       <c r="F128" s="10" t="s">
@@ -46818,13 +46818,13 @@
       <c r="B129" s="8">
         <v>44026</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="16" t="s">
         <v>235</v>
       </c>
       <c r="D129" s="9">
         <v>0.52224537037037033</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="E129" s="21" t="s">
         <v>827</v>
       </c>
       <c r="F129" s="10" t="s">
@@ -46853,13 +46853,13 @@
       <c r="B130" s="8">
         <v>44027</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="16" t="s">
         <v>236</v>
       </c>
       <c r="D130" s="9">
         <v>0.52315972222222229</v>
       </c>
-      <c r="E130" s="23" t="s">
+      <c r="E130" s="21" t="s">
         <v>828</v>
       </c>
       <c r="F130" s="10" t="s">
@@ -46888,13 +46888,13 @@
       <c r="B131" s="8">
         <v>44027</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="16" t="s">
         <v>236</v>
       </c>
       <c r="D131" s="9">
         <v>0.52439814814814811</v>
       </c>
-      <c r="E131" s="23" t="s">
+      <c r="E131" s="21" t="s">
         <v>829</v>
       </c>
       <c r="F131" s="10" t="s">
@@ -46923,13 +46923,13 @@
       <c r="B132" s="8">
         <v>44027</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="16" t="s">
         <v>236</v>
       </c>
       <c r="D132" s="9">
         <v>0.52476851851851858</v>
       </c>
-      <c r="E132" s="23" t="s">
+      <c r="E132" s="21" t="s">
         <v>830</v>
       </c>
       <c r="F132" s="10" t="s">
@@ -46958,13 +46958,13 @@
       <c r="B133" s="8">
         <v>44028</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="16" t="s">
         <v>237</v>
       </c>
       <c r="D133" s="9">
         <v>0.5248032407407407</v>
       </c>
-      <c r="E133" s="23" t="s">
+      <c r="E133" s="21" t="s">
         <v>831</v>
       </c>
       <c r="F133" s="10" t="s">
@@ -46993,13 +46993,13 @@
       <c r="B134" s="8">
         <v>44029</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="16" t="s">
         <v>238</v>
       </c>
       <c r="D134" s="9">
         <v>0.52528935185185188</v>
       </c>
-      <c r="E134" s="23" t="s">
+      <c r="E134" s="21" t="s">
         <v>832</v>
       </c>
       <c r="F134" s="10" t="s">
@@ -47028,13 +47028,13 @@
       <c r="B135" s="8">
         <v>44030</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="16" t="s">
         <v>239</v>
       </c>
       <c r="D135" s="9">
         <v>0.52721064814814811</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="21" t="s">
         <v>833</v>
       </c>
       <c r="F135" s="10" t="s">
@@ -47063,13 +47063,13 @@
       <c r="B136" s="8">
         <v>44030</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="16" t="s">
         <v>239</v>
       </c>
       <c r="D136" s="9">
         <v>0.52870370370370368</v>
       </c>
-      <c r="E136" s="23" t="s">
+      <c r="E136" s="21" t="s">
         <v>834</v>
       </c>
       <c r="F136" s="10" t="s">
@@ -47098,13 +47098,13 @@
       <c r="B137" s="8">
         <v>44030</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="16" t="s">
         <v>239</v>
       </c>
       <c r="D137" s="9">
         <v>0.5289814814814815</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="E137" s="21" t="s">
         <v>835</v>
       </c>
       <c r="F137" s="10" t="s">
@@ -47133,13 +47133,13 @@
       <c r="B138" s="8">
         <v>44031</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D138" s="9">
         <v>0.53106481481481482</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E138" s="21" t="s">
         <v>836</v>
       </c>
       <c r="F138" s="10" t="s">
@@ -47168,13 +47168,13 @@
       <c r="B139" s="8">
         <v>44031</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D139" s="9">
         <v>0.53140046296296295</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="21" t="s">
         <v>837</v>
       </c>
       <c r="F139" s="10" t="s">
@@ -47203,13 +47203,13 @@
       <c r="B140" s="8">
         <v>44031</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="16" t="s">
         <v>240</v>
       </c>
       <c r="D140" s="9">
         <v>0.53153935185185186</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" s="21" t="s">
         <v>838</v>
       </c>
       <c r="F140" s="10" t="s">
@@ -47238,13 +47238,13 @@
       <c r="B141" s="8">
         <v>44032</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D141" s="9">
         <v>0.53251157407407412</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" s="21" t="s">
         <v>839</v>
       </c>
       <c r="F141" s="10" t="s">
@@ -47273,13 +47273,13 @@
       <c r="B142" s="8">
         <v>44032</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="16" t="s">
         <v>241</v>
       </c>
       <c r="D142" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="21" t="s">
         <v>840</v>
       </c>
       <c r="F142" s="10" t="s">
@@ -47308,13 +47308,13 @@
       <c r="B143" s="8">
         <v>44034</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D143" s="9">
         <v>0.54038194444444443</v>
       </c>
-      <c r="E143" s="23" t="s">
+      <c r="E143" s="21" t="s">
         <v>841</v>
       </c>
       <c r="F143" s="10" t="s">
@@ -47343,13 +47343,13 @@
       <c r="B144" s="8">
         <v>44035</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D144" s="9">
         <v>0.54075231481481478</v>
       </c>
-      <c r="E144" s="23" t="s">
+      <c r="E144" s="21" t="s">
         <v>842</v>
       </c>
       <c r="F144" s="10" t="s">
@@ -47378,13 +47378,13 @@
       <c r="B145" s="8">
         <v>44035</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D145" s="9">
         <v>0.54203703703703698</v>
       </c>
-      <c r="E145" s="23" t="s">
+      <c r="E145" s="21" t="s">
         <v>843</v>
       </c>
       <c r="F145" s="10" t="s">
@@ -47413,13 +47413,13 @@
       <c r="B146" s="8">
         <v>44035</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D146" s="9">
         <v>0.54246527777777775</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" s="21" t="s">
         <v>844</v>
       </c>
       <c r="F146" s="10" t="s">
@@ -47448,13 +47448,13 @@
       <c r="B147" s="8">
         <v>44036</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="16" t="s">
         <v>244</v>
       </c>
       <c r="D147" s="9">
         <v>0.54576388888888883</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="21" t="s">
         <v>845</v>
       </c>
       <c r="F147" s="10" t="s">
@@ -47483,13 +47483,13 @@
       <c r="B148" s="8">
         <v>44037</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="16" t="s">
         <v>245</v>
       </c>
       <c r="D148" s="9">
         <v>0.5479398148148148</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="21" t="s">
         <v>846</v>
       </c>
       <c r="F148" s="10" t="s">
@@ -47518,13 +47518,13 @@
       <c r="B149" s="8">
         <v>44037</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="16" t="s">
         <v>245</v>
       </c>
       <c r="D149" s="9">
         <v>0.54835648148148153</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="21" t="s">
         <v>847</v>
       </c>
       <c r="F149" s="10" t="s">
@@ -47553,13 +47553,13 @@
       <c r="B150" s="8">
         <v>44037</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="16" t="s">
         <v>245</v>
       </c>
       <c r="D150" s="9">
         <v>0.55016203703703703</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="21" t="s">
         <v>848</v>
       </c>
       <c r="F150" s="10" t="s">
@@ -47588,13 +47588,13 @@
       <c r="B151" s="8">
         <v>44038</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="16" t="s">
         <v>246</v>
       </c>
       <c r="D151" s="9">
         <v>0.55075231481481479</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="21" t="s">
         <v>849</v>
       </c>
       <c r="F151" s="10" t="s">
@@ -47623,13 +47623,13 @@
       <c r="B152" s="8">
         <v>44076</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="16" t="s">
         <v>247</v>
       </c>
       <c r="D152" s="9">
         <v>0.68019675925925915</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="21" t="s">
         <v>850</v>
       </c>
       <c r="F152" s="10" t="s">
@@ -47658,13 +47658,13 @@
       <c r="B153" s="8">
         <v>44077</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D153" s="9">
         <v>0.68070601851851853</v>
       </c>
-      <c r="E153" s="23" t="s">
+      <c r="E153" s="21" t="s">
         <v>851</v>
       </c>
       <c r="F153" s="10" t="s">
@@ -47693,13 +47693,13 @@
       <c r="B154" s="8">
         <v>44077</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D154" s="9">
         <v>0.68083333333333329</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="21" t="s">
         <v>852</v>
       </c>
       <c r="F154" s="10" t="s">
@@ -47728,13 +47728,13 @@
       <c r="B155" s="8">
         <v>44079</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="16" t="s">
         <v>249</v>
       </c>
       <c r="D155" s="9">
         <v>0.68212962962962964</v>
       </c>
-      <c r="E155" s="23" t="s">
+      <c r="E155" s="21" t="s">
         <v>853</v>
       </c>
       <c r="F155" s="10" t="s">
@@ -47763,13 +47763,13 @@
       <c r="B156" s="8">
         <v>44079</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="16" t="s">
         <v>249</v>
       </c>
       <c r="D156" s="9">
         <v>0.68391203703703696</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="21" t="s">
         <v>854</v>
       </c>
       <c r="F156" s="10" t="s">
@@ -47798,13 +47798,13 @@
       <c r="B157" s="8">
         <v>44079</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="16" t="s">
         <v>249</v>
       </c>
       <c r="D157" s="9">
         <v>0.68789351851851854</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="21" t="s">
         <v>855</v>
       </c>
       <c r="F157" s="10" t="s">
@@ -47833,13 +47833,13 @@
       <c r="B158" s="8">
         <v>44079</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="16" t="s">
         <v>249</v>
       </c>
       <c r="D158" s="9">
         <v>0.68828703703703698</v>
       </c>
-      <c r="E158" s="23" t="s">
+      <c r="E158" s="21" t="s">
         <v>856</v>
       </c>
       <c r="F158" s="10" t="s">
@@ -47868,13 +47868,13 @@
       <c r="B159" s="8">
         <v>44081</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D159" s="9">
         <v>0.68871527777777775</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" s="21" t="s">
         <v>857</v>
       </c>
       <c r="F159" s="10" t="s">
@@ -47903,13 +47903,13 @@
       <c r="B160" s="8">
         <v>44081</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D160" s="9">
         <v>0.68997685185185187</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="21" t="s">
         <v>858</v>
       </c>
       <c r="F160" s="10" t="s">
@@ -47938,13 +47938,13 @@
       <c r="B161" s="8">
         <v>44081</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="16" t="s">
         <v>250</v>
       </c>
       <c r="D161" s="9">
         <v>0.6902314814814815</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="21" t="s">
         <v>859</v>
       </c>
       <c r="F161" s="10" t="s">
@@ -47973,13 +47973,13 @@
       <c r="B162" s="8">
         <v>44082</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="16" t="s">
         <v>251</v>
       </c>
       <c r="D162" s="9">
         <v>0.69115740740740739</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" s="21" t="s">
         <v>860</v>
       </c>
       <c r="F162" s="10" t="s">
@@ -48008,13 +48008,13 @@
       <c r="B163" s="8">
         <v>44082</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="16" t="s">
         <v>251</v>
       </c>
       <c r="D163" s="9">
         <v>0.6918171296296296</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="21" t="s">
         <v>861</v>
       </c>
       <c r="F163" s="10" t="s">
@@ -48043,13 +48043,13 @@
       <c r="B164" s="8">
         <v>44083</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="16" t="s">
         <v>252</v>
       </c>
       <c r="D164" s="9">
         <v>0.69247685185185182</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E164" s="21" t="s">
         <v>862</v>
       </c>
       <c r="F164" s="10" t="s">
@@ -48078,13 +48078,13 @@
       <c r="B165" s="8">
         <v>44084</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D165" s="9">
         <v>0.69625000000000004</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" s="21" t="s">
         <v>863</v>
       </c>
       <c r="F165" s="10" t="s">
@@ -48113,13 +48113,13 @@
       <c r="B166" s="8">
         <v>44084</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D166" s="9">
         <v>0.69868055555555564</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="21" t="s">
         <v>864</v>
       </c>
       <c r="F166" s="10" t="s">
@@ -48148,13 +48148,13 @@
       <c r="B167" s="8">
         <v>44084</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D167" s="9">
         <v>0.69943287037037039</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="21" t="s">
         <v>865</v>
       </c>
       <c r="F167" s="10" t="s">
@@ -48183,13 +48183,13 @@
       <c r="B168" s="8">
         <v>44084</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="16" t="s">
         <v>253</v>
       </c>
       <c r="D168" s="9">
         <v>0.70004629629629633</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="21" t="s">
         <v>866</v>
       </c>
       <c r="F168" s="10" t="s">
@@ -48218,13 +48218,13 @@
       <c r="B169" s="8">
         <v>44085</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D169" s="9">
         <v>0.7015393518518519</v>
       </c>
-      <c r="E169" s="23" t="s">
+      <c r="E169" s="21" t="s">
         <v>867</v>
       </c>
       <c r="F169" s="10" t="s">
@@ -48253,13 +48253,13 @@
       <c r="B170" s="8">
         <v>44085</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D170" s="9">
         <v>0.70200231481481479</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" s="21" t="s">
         <v>868</v>
       </c>
       <c r="F170" s="10" t="s">
@@ -48288,13 +48288,13 @@
       <c r="B171" s="8">
         <v>44085</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D171" s="9">
         <v>0.70425925925925925</v>
       </c>
-      <c r="E171" s="23" t="s">
+      <c r="E171" s="21" t="s">
         <v>869</v>
       </c>
       <c r="F171" s="10" t="s">
@@ -48323,13 +48323,13 @@
       <c r="B172" s="8">
         <v>44086</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="16" t="s">
         <v>255</v>
       </c>
       <c r="D172" s="9">
         <v>0.70482638888888882</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" s="21" t="s">
         <v>870</v>
       </c>
       <c r="F172" s="10" t="s">
@@ -48358,13 +48358,13 @@
       <c r="B173" s="8">
         <v>44087</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="16" t="s">
         <v>256</v>
       </c>
       <c r="D173" s="9">
         <v>0.70554398148148145</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" s="21" t="s">
         <v>871</v>
       </c>
       <c r="F173" s="10" t="s">
@@ -48393,13 +48393,13 @@
       <c r="B174" s="8">
         <v>44087</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="16" t="s">
         <v>256</v>
       </c>
       <c r="D174" s="9">
         <v>0.71483796296296298</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" s="21" t="s">
         <v>872</v>
       </c>
       <c r="F174" s="10" t="s">
@@ -48428,13 +48428,13 @@
       <c r="B175" s="8">
         <v>44088</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="16" t="s">
         <v>257</v>
       </c>
       <c r="D175" s="9">
         <v>0.71732638888888889</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="21" t="s">
         <v>873</v>
       </c>
       <c r="F175" s="10" t="s">
@@ -48463,13 +48463,13 @@
       <c r="B176" s="8">
         <v>44089</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D176" s="9">
         <v>0.72297453703703696</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="21" t="s">
         <v>874</v>
       </c>
       <c r="F176" s="10" t="s">
@@ -48498,13 +48498,13 @@
       <c r="B177" s="8">
         <v>44089</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="16" t="s">
         <v>258</v>
       </c>
       <c r="D177" s="9">
         <v>0.72432870370370372</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="21" t="s">
         <v>875</v>
       </c>
       <c r="F177" s="10" t="s">
@@ -48533,13 +48533,13 @@
       <c r="B178" s="8">
         <v>44090</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="16" t="s">
         <v>259</v>
       </c>
       <c r="D178" s="9">
         <v>0.72815972222222225</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="21" t="s">
         <v>876</v>
       </c>
       <c r="F178" s="10" t="s">
@@ -48568,13 +48568,13 @@
       <c r="B179" s="8">
         <v>44090</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="16" t="s">
         <v>259</v>
       </c>
       <c r="D179" s="9">
         <v>0.73008101851851848</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="21" t="s">
         <v>877</v>
       </c>
       <c r="F179" s="10" t="s">
@@ -48603,13 +48603,13 @@
       <c r="B180" s="8">
         <v>44091</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D180" s="9">
         <v>0.73061342592592593</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E180" s="21" t="s">
         <v>878</v>
       </c>
       <c r="F180" s="10" t="s">
@@ -48638,13 +48638,13 @@
       <c r="B181" s="8">
         <v>44091</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D181" s="9">
         <v>0.73090277777777779</v>
       </c>
-      <c r="E181" s="23" t="s">
+      <c r="E181" s="21" t="s">
         <v>879</v>
       </c>
       <c r="F181" s="10" t="s">
@@ -48673,13 +48673,13 @@
       <c r="B182" s="8">
         <v>44095</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="16" t="s">
         <v>261</v>
       </c>
       <c r="D182" s="9">
         <v>0.73171296296296295</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="21" t="s">
         <v>880</v>
       </c>
       <c r="F182" s="10" t="s">
@@ -48708,13 +48708,13 @@
       <c r="B183" s="8">
         <v>44095</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="16" t="s">
         <v>261</v>
       </c>
       <c r="D183" s="9">
         <v>0.73862268518518526</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="21" t="s">
         <v>881</v>
       </c>
       <c r="F183" s="10" t="s">
@@ -48743,13 +48743,13 @@
       <c r="B184" s="8">
         <v>44095</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="16" t="s">
         <v>261</v>
       </c>
       <c r="D184" s="9">
         <v>0.74025462962962962</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="21" t="s">
         <v>882</v>
       </c>
       <c r="F184" s="10" t="s">
@@ -48778,13 +48778,13 @@
       <c r="B185" s="8">
         <v>44097</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="16" t="s">
         <v>262</v>
       </c>
       <c r="D185" s="9">
         <v>0.74174768518518519</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" s="21" t="s">
         <v>883</v>
       </c>
       <c r="F185" s="10" t="s">
@@ -48813,13 +48813,13 @@
       <c r="B186" s="8">
         <v>44098</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="16" t="s">
         <v>263</v>
       </c>
       <c r="D186" s="9">
         <v>0.74239583333333325</v>
       </c>
-      <c r="E186" s="23" t="s">
+      <c r="E186" s="21" t="s">
         <v>884</v>
       </c>
       <c r="F186" s="10" t="s">
@@ -48848,13 +48848,13 @@
       <c r="B187" s="8">
         <v>44098</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="16" t="s">
         <v>263</v>
       </c>
       <c r="D187" s="9">
         <v>0.74400462962962965</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" s="21" t="s">
         <v>885</v>
       </c>
       <c r="F187" s="10" t="s">
@@ -48883,13 +48883,13 @@
       <c r="B188" s="8">
         <v>44099</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D188" s="9">
         <v>0.748113425925926</v>
       </c>
-      <c r="E188" s="23" t="s">
+      <c r="E188" s="21" t="s">
         <v>886</v>
       </c>
       <c r="F188" s="10" t="s">
@@ -48918,13 +48918,13 @@
       <c r="B189" s="8">
         <v>44099</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="16" t="s">
         <v>264</v>
       </c>
       <c r="D189" s="9">
         <v>0.75178240740740743</v>
       </c>
-      <c r="E189" s="23" t="s">
+      <c r="E189" s="21" t="s">
         <v>887</v>
       </c>
       <c r="F189" s="10" t="s">
@@ -48953,13 +48953,13 @@
       <c r="B190" s="8">
         <v>44100</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D190" s="9">
         <v>0.75222222222222224</v>
       </c>
-      <c r="E190" s="23" t="s">
+      <c r="E190" s="21" t="s">
         <v>888</v>
       </c>
       <c r="F190" s="10" t="s">
@@ -48988,13 +48988,13 @@
       <c r="B191" s="8">
         <v>44100</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D191" s="9">
         <v>0.75405092592592593</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="E191" s="21" t="s">
         <v>889</v>
       </c>
       <c r="F191" s="10" t="s">
@@ -49023,13 +49023,13 @@
       <c r="B192" s="8">
         <v>44100</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D192" s="9">
         <v>0.75599537037037035</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="E192" s="21" t="s">
         <v>890</v>
       </c>
       <c r="F192" s="10" t="s">
@@ -49058,13 +49058,13 @@
       <c r="B193" s="8">
         <v>44137</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="16" t="s">
         <v>266</v>
       </c>
       <c r="D193" s="9">
         <v>0.86202546296296301</v>
       </c>
-      <c r="E193" s="23" t="s">
+      <c r="E193" s="21" t="s">
         <v>891</v>
       </c>
       <c r="F193" s="10" t="s">
@@ -49093,13 +49093,13 @@
       <c r="B194" s="8">
         <v>44138</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="16" t="s">
         <v>267</v>
       </c>
       <c r="D194" s="9">
         <v>0.86284722222222221</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="E194" s="21" t="s">
         <v>892</v>
       </c>
       <c r="F194" s="10" t="s">
@@ -49128,13 +49128,13 @@
       <c r="B195" s="8">
         <v>44140</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="16" t="s">
         <v>268</v>
       </c>
       <c r="D195" s="9">
         <v>0.86576388888888889</v>
       </c>
-      <c r="E195" s="23" t="s">
+      <c r="E195" s="21" t="s">
         <v>893</v>
       </c>
       <c r="F195" s="10" t="s">
@@ -49163,13 +49163,13 @@
       <c r="B196" s="8">
         <v>44141</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D196" s="9">
         <v>0.86981481481481471</v>
       </c>
-      <c r="E196" s="23" t="s">
+      <c r="E196" s="21" t="s">
         <v>894</v>
       </c>
       <c r="F196" s="10" t="s">
@@ -49198,13 +49198,13 @@
       <c r="B197" s="8">
         <v>44141</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="16" t="s">
         <v>269</v>
       </c>
       <c r="D197" s="9">
         <v>0.87118055555555562</v>
       </c>
-      <c r="E197" s="23" t="s">
+      <c r="E197" s="21" t="s">
         <v>895</v>
       </c>
       <c r="F197" s="10" t="s">
@@ -49233,13 +49233,13 @@
       <c r="B198" s="8">
         <v>44142</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="16" t="s">
         <v>270</v>
       </c>
       <c r="D198" s="9">
         <v>0.87214120370370374</v>
       </c>
-      <c r="E198" s="23" t="s">
+      <c r="E198" s="21" t="s">
         <v>896</v>
       </c>
       <c r="F198" s="10" t="s">
@@ -49268,13 +49268,13 @@
       <c r="B199" s="8">
         <v>44143</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="16" t="s">
         <v>271</v>
       </c>
       <c r="D199" s="9">
         <v>0.87299768518518517</v>
       </c>
-      <c r="E199" s="23" t="s">
+      <c r="E199" s="21" t="s">
         <v>897</v>
       </c>
       <c r="F199" s="10" t="s">
@@ -49303,13 +49303,13 @@
       <c r="B200" s="8">
         <v>44145</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D200" s="9">
         <v>0.87349537037037039</v>
       </c>
-      <c r="E200" s="23" t="s">
+      <c r="E200" s="21" t="s">
         <v>898</v>
       </c>
       <c r="F200" s="10" t="s">
@@ -49338,13 +49338,13 @@
       <c r="B201" s="8">
         <v>44145</v>
       </c>
-      <c r="C201" s="18" t="s">
+      <c r="C201" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D201" s="9">
         <v>0.87366898148148142</v>
       </c>
-      <c r="E201" s="23" t="s">
+      <c r="E201" s="21" t="s">
         <v>899</v>
       </c>
       <c r="F201" s="10" t="s">
@@ -49373,13 +49373,13 @@
       <c r="B202" s="8">
         <v>44146</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="16" t="s">
         <v>273</v>
       </c>
       <c r="D202" s="9">
         <v>0.87596064814814811</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="21" t="s">
         <v>900</v>
       </c>
       <c r="F202" s="10" t="s">
@@ -49408,13 +49408,13 @@
       <c r="B203" s="8">
         <v>44146</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C203" s="16" t="s">
         <v>273</v>
       </c>
       <c r="D203" s="9">
         <v>0.87798611111111102</v>
       </c>
-      <c r="E203" s="23" t="s">
+      <c r="E203" s="21" t="s">
         <v>901</v>
       </c>
       <c r="F203" s="10" t="s">
@@ -49443,13 +49443,13 @@
       <c r="B204" s="8">
         <v>44147</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="16" t="s">
         <v>274</v>
       </c>
       <c r="D204" s="9">
         <v>0.87878472222222215</v>
       </c>
-      <c r="E204" s="23" t="s">
+      <c r="E204" s="21" t="s">
         <v>902</v>
       </c>
       <c r="F204" s="10" t="s">
@@ -49478,13 +49478,13 @@
       <c r="B205" s="8">
         <v>44147</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C205" s="16" t="s">
         <v>274</v>
       </c>
       <c r="D205" s="9">
         <v>0.88082175925925921</v>
       </c>
-      <c r="E205" s="23" t="s">
+      <c r="E205" s="21" t="s">
         <v>903</v>
       </c>
       <c r="F205" s="10" t="s">
@@ -49513,13 +49513,13 @@
       <c r="B206" s="8">
         <v>44147</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="16" t="s">
         <v>274</v>
       </c>
       <c r="D206" s="9">
         <v>0.88106481481481491</v>
       </c>
-      <c r="E206" s="23" t="s">
+      <c r="E206" s="21" t="s">
         <v>904</v>
       </c>
       <c r="F206" s="10" t="s">
@@ -49548,13 +49548,13 @@
       <c r="B207" s="8">
         <v>44148</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="16" t="s">
         <v>275</v>
       </c>
       <c r="D207" s="9">
         <v>0.88228009259259255</v>
       </c>
-      <c r="E207" s="23" t="s">
+      <c r="E207" s="21" t="s">
         <v>905</v>
       </c>
       <c r="F207" s="10" t="s">
@@ -49583,13 +49583,13 @@
       <c r="B208" s="8">
         <v>44148</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="16" t="s">
         <v>275</v>
       </c>
       <c r="D208" s="9">
         <v>0.88241898148148146</v>
       </c>
-      <c r="E208" s="23" t="s">
+      <c r="E208" s="21" t="s">
         <v>906</v>
       </c>
       <c r="F208" s="10" t="s">
@@ -49618,13 +49618,13 @@
       <c r="B209" s="8">
         <v>44149</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D209" s="9">
         <v>0.88495370370370363</v>
       </c>
-      <c r="E209" s="23" t="s">
+      <c r="E209" s="21" t="s">
         <v>907</v>
       </c>
       <c r="F209" s="10" t="s">
@@ -49653,13 +49653,13 @@
       <c r="B210" s="8">
         <v>44151</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D210" s="9">
         <v>0.88510416666666669</v>
       </c>
-      <c r="E210" s="23" t="s">
+      <c r="E210" s="21" t="s">
         <v>908</v>
       </c>
       <c r="F210" s="10" t="s">
@@ -49688,13 +49688,13 @@
       <c r="B211" s="8">
         <v>44151</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D211" s="9">
         <v>0.88856481481481486</v>
       </c>
-      <c r="E211" s="23" t="s">
+      <c r="E211" s="21" t="s">
         <v>909</v>
       </c>
       <c r="F211" s="10" t="s">
@@ -49723,13 +49723,13 @@
       <c r="B212" s="8">
         <v>44152</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D212" s="9">
         <v>0.8887152777777777</v>
       </c>
-      <c r="E212" s="23" t="s">
+      <c r="E212" s="21" t="s">
         <v>910</v>
       </c>
       <c r="F212" s="10" t="s">
@@ -49758,13 +49758,13 @@
       <c r="B213" s="8">
         <v>44152</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="16" t="s">
         <v>278</v>
       </c>
       <c r="D213" s="9">
         <v>0.8893402777777778</v>
       </c>
-      <c r="E213" s="23" t="s">
+      <c r="E213" s="21" t="s">
         <v>911</v>
       </c>
       <c r="F213" s="10" t="s">
@@ -49793,13 +49793,13 @@
       <c r="B214" s="8">
         <v>44154</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="16" t="s">
         <v>279</v>
       </c>
       <c r="D214" s="9">
         <v>0.89226851851851852</v>
       </c>
-      <c r="E214" s="23" t="s">
+      <c r="E214" s="21" t="s">
         <v>912</v>
       </c>
       <c r="F214" s="10" t="s">
@@ -49828,13 +49828,13 @@
       <c r="B215" s="8">
         <v>44156</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="16" t="s">
         <v>280</v>
       </c>
       <c r="D215" s="9">
         <v>0.89256944444444442</v>
       </c>
-      <c r="E215" s="23" t="s">
+      <c r="E215" s="21" t="s">
         <v>913</v>
       </c>
       <c r="F215" s="10" t="s">
@@ -49863,13 +49863,13 @@
       <c r="B216" s="8">
         <v>44157</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D216" s="9">
         <v>0.89543981481481483</v>
       </c>
-      <c r="E216" s="23" t="s">
+      <c r="E216" s="21" t="s">
         <v>914</v>
       </c>
       <c r="F216" s="10" t="s">
@@ -49898,13 +49898,13 @@
       <c r="B217" s="8">
         <v>44157</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D217" s="9">
         <v>0.89749999999999996</v>
       </c>
-      <c r="E217" s="23" t="s">
+      <c r="E217" s="21" t="s">
         <v>915</v>
       </c>
       <c r="F217" s="10" t="s">
@@ -49933,13 +49933,13 @@
       <c r="B218" s="8">
         <v>44160</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="16" t="s">
         <v>282</v>
       </c>
       <c r="D218" s="9">
         <v>0.89790509259259255</v>
       </c>
-      <c r="E218" s="23" t="s">
+      <c r="E218" s="21" t="s">
         <v>916</v>
       </c>
       <c r="F218" s="10" t="s">
@@ -49968,13 +49968,13 @@
       <c r="B219" s="8">
         <v>44160</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="16" t="s">
         <v>282</v>
       </c>
       <c r="D219" s="9">
         <v>0.89875000000000005</v>
       </c>
-      <c r="E219" s="23" t="s">
+      <c r="E219" s="21" t="s">
         <v>917</v>
       </c>
       <c r="F219" s="10" t="s">
@@ -50003,13 +50003,13 @@
       <c r="B220" s="8">
         <v>44161</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D220" s="9">
         <v>0.89987268518518526</v>
       </c>
-      <c r="E220" s="23" t="s">
+      <c r="E220" s="21" t="s">
         <v>918</v>
       </c>
       <c r="F220" s="10" t="s">
@@ -50038,13 +50038,13 @@
       <c r="B221" s="8">
         <v>44161</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C221" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D221" s="9">
         <v>0.90623842592592585</v>
       </c>
-      <c r="E221" s="23" t="s">
+      <c r="E221" s="21" t="s">
         <v>919</v>
       </c>
       <c r="F221" s="10" t="s">
@@ -50073,13 +50073,13 @@
       <c r="B222" s="8">
         <v>44161</v>
       </c>
-      <c r="C222" s="18" t="s">
+      <c r="C222" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D222" s="9">
         <v>0.90879629629629621</v>
       </c>
-      <c r="E222" s="23" t="s">
+      <c r="E222" s="21" t="s">
         <v>920</v>
       </c>
       <c r="F222" s="10" t="s">
@@ -50108,13 +50108,13 @@
       <c r="B223" s="8">
         <v>44166</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="16" t="s">
         <v>284</v>
       </c>
       <c r="D223" s="9">
         <v>0.9138425925925926</v>
       </c>
-      <c r="E223" s="23" t="s">
+      <c r="E223" s="21" t="s">
         <v>921</v>
       </c>
       <c r="F223" s="10" t="s">
@@ -50143,13 +50143,13 @@
       <c r="B224" s="8">
         <v>44166</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="16" t="s">
         <v>284</v>
       </c>
       <c r="D224" s="9">
         <v>0.91517361111111117</v>
       </c>
-      <c r="E224" s="23" t="s">
+      <c r="E224" s="21" t="s">
         <v>922</v>
       </c>
       <c r="F224" s="10" t="s">
@@ -50178,13 +50178,13 @@
       <c r="B225" s="8">
         <v>44166</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="16" t="s">
         <v>284</v>
       </c>
       <c r="D225" s="9">
         <v>0.91614583333333333</v>
       </c>
-      <c r="E225" s="23" t="s">
+      <c r="E225" s="21" t="s">
         <v>923</v>
       </c>
       <c r="F225" s="10" t="s">
@@ -50213,13 +50213,13 @@
       <c r="B226" s="8">
         <v>44167</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D226" s="9">
         <v>0.91876157407407411</v>
       </c>
-      <c r="E226" s="23" t="s">
+      <c r="E226" s="21" t="s">
         <v>924</v>
       </c>
       <c r="F226" s="10" t="s">
@@ -50248,13 +50248,13 @@
       <c r="B227" s="8">
         <v>44167</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="16" t="s">
         <v>285</v>
       </c>
       <c r="D227" s="9">
         <v>0.91958333333333331</v>
       </c>
-      <c r="E227" s="23" t="s">
+      <c r="E227" s="21" t="s">
         <v>925</v>
       </c>
       <c r="F227" s="10" t="s">
@@ -50283,13 +50283,13 @@
       <c r="B228" s="8">
         <v>44168</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="16" t="s">
         <v>286</v>
       </c>
       <c r="D228" s="9">
         <v>0.92074074074074075</v>
       </c>
-      <c r="E228" s="23" t="s">
+      <c r="E228" s="21" t="s">
         <v>926</v>
       </c>
       <c r="F228" s="10" t="s">
@@ -50318,13 +50318,13 @@
       <c r="B229" s="8">
         <v>44168</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="16" t="s">
         <v>286</v>
       </c>
       <c r="D229" s="9">
         <v>0.92381944444444442</v>
       </c>
-      <c r="E229" s="23" t="s">
+      <c r="E229" s="21" t="s">
         <v>927</v>
       </c>
       <c r="F229" s="10" t="s">
@@ -50353,13 +50353,13 @@
       <c r="B230" s="8">
         <v>44169</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D230" s="9">
         <v>0.9246064814814815</v>
       </c>
-      <c r="E230" s="23" t="s">
+      <c r="E230" s="21" t="s">
         <v>928</v>
       </c>
       <c r="F230" s="10" t="s">
@@ -50388,13 +50388,13 @@
       <c r="B231" s="8">
         <v>44169</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C231" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D231" s="9">
         <v>0.92842592592592599</v>
       </c>
-      <c r="E231" s="23" t="s">
+      <c r="E231" s="21" t="s">
         <v>929</v>
       </c>
       <c r="F231" s="10" t="s">
@@ -50423,13 +50423,13 @@
       <c r="B232" s="8">
         <v>44169</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="16" t="s">
         <v>287</v>
       </c>
       <c r="D232" s="9">
         <v>0.9343055555555555</v>
       </c>
-      <c r="E232" s="23" t="s">
+      <c r="E232" s="21" t="s">
         <v>930</v>
       </c>
       <c r="F232" s="10" t="s">
@@ -50458,13 +50458,13 @@
       <c r="B233" s="8">
         <v>44170</v>
       </c>
-      <c r="C233" s="18" t="s">
+      <c r="C233" s="16" t="s">
         <v>288</v>
       </c>
       <c r="D233" s="9">
         <v>0.93475694444444446</v>
       </c>
-      <c r="E233" s="23" t="s">
+      <c r="E233" s="21" t="s">
         <v>931</v>
       </c>
       <c r="F233" s="10" t="s">
@@ -50493,13 +50493,13 @@
       <c r="B234" s="8">
         <v>44170</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="16" t="s">
         <v>288</v>
       </c>
       <c r="D234" s="9">
         <v>0.93674768518518514</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="E234" s="21" t="s">
         <v>932</v>
       </c>
       <c r="F234" s="10" t="s">
@@ -50528,13 +50528,13 @@
       <c r="B235" s="8">
         <v>44171</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D235" s="9">
         <v>0.94166666666666676</v>
       </c>
-      <c r="E235" s="23" t="s">
+      <c r="E235" s="21" t="s">
         <v>933</v>
       </c>
       <c r="F235" s="10" t="s">
@@ -50563,13 +50563,13 @@
       <c r="B236" s="8">
         <v>44171</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D236" s="9">
         <v>0.94251157407407404</v>
       </c>
-      <c r="E236" s="23" t="s">
+      <c r="E236" s="21" t="s">
         <v>934</v>
       </c>
       <c r="F236" s="10" t="s">
@@ -51746,14 +51746,14 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="22" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" customWidth="1"/>
@@ -51786,7 +51786,7 @@
       <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>144</v>
       </c>
     </row>
@@ -51797,7 +51797,7 @@
       <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -51808,7 +51808,7 @@
       <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>74</v>
       </c>
     </row>
@@ -51819,7 +51819,7 @@
       <c r="B5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>119</v>
       </c>
     </row>
@@ -51830,7 +51830,7 @@
       <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>139</v>
       </c>
     </row>
@@ -51841,7 +51841,7 @@
       <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>133</v>
       </c>
     </row>
@@ -51852,7 +51852,7 @@
       <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -51863,7 +51863,7 @@
       <c r="B9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -51874,7 +51874,7 @@
       <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>97</v>
       </c>
     </row>
@@ -51885,7 +51885,7 @@
       <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>76</v>
       </c>
     </row>
@@ -51896,7 +51896,7 @@
       <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>74</v>
       </c>
     </row>
@@ -51907,7 +51907,7 @@
       <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51918,7 +51918,7 @@
       <c r="B14" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>141</v>
       </c>
     </row>
@@ -51929,7 +51929,7 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -51940,7 +51940,7 @@
       <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -51951,7 +51951,7 @@
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51962,7 +51962,7 @@
       <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>121</v>
       </c>
     </row>
@@ -51973,7 +51973,7 @@
       <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -51984,7 +51984,7 @@
       <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -51995,7 +51995,7 @@
       <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -52006,7 +52006,7 @@
       <c r="B22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>148</v>
       </c>
     </row>
@@ -52017,7 +52017,7 @@
       <c r="B23" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>125</v>
       </c>
     </row>
@@ -52028,7 +52028,7 @@
       <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>150</v>
       </c>
     </row>
@@ -52039,7 +52039,7 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -52050,7 +52050,7 @@
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -52061,7 +52061,7 @@
       <c r="B27" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>137</v>
       </c>
     </row>
@@ -52072,7 +52072,7 @@
       <c r="B28" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -52083,7 +52083,7 @@
       <c r="B29" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>127</v>
       </c>
     </row>
@@ -52094,7 +52094,7 @@
       <c r="B30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>113</v>
       </c>
     </row>
@@ -52105,7 +52105,7 @@
       <c r="B31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -52116,7 +52116,7 @@
       <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>105</v>
       </c>
     </row>
@@ -52127,7 +52127,7 @@
       <c r="B33" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>131</v>
       </c>
     </row>
@@ -52138,7 +52138,7 @@
       <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -52149,7 +52149,7 @@
       <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -52160,7 +52160,7 @@
       <c r="B36" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -52171,7 +52171,7 @@
       <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -52182,7 +52182,7 @@
       <c r="B38" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -52193,7 +52193,7 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>80</v>
       </c>
     </row>
@@ -52204,7 +52204,7 @@
       <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>89</v>
       </c>
     </row>
@@ -52215,7 +52215,7 @@
       <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -52226,7 +52226,7 @@
       <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -52237,7 +52237,7 @@
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>99</v>
       </c>
     </row>
@@ -52248,7 +52248,7 @@
       <c r="B44" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="22" t="s">
         <v>103</v>
       </c>
     </row>
@@ -52259,7 +52259,7 @@
       <c r="B45" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -52270,7 +52270,7 @@
       <c r="B46" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -52281,7 +52281,7 @@
       <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -52292,7 +52292,7 @@
       <c r="B48" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>146</v>
       </c>
     </row>
@@ -52303,7 +52303,7 @@
       <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -52314,7 +52314,7 @@
       <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -52325,7 +52325,7 @@
       <c r="B51" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="22" t="s">
         <v>135</v>
       </c>
     </row>
